--- a/Code/Results/Cases/Case_5_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004692606455642</v>
+        <v>1.028637373684413</v>
       </c>
       <c r="D2">
-        <v>1.021997303954282</v>
+        <v>1.045107101235883</v>
       </c>
       <c r="E2">
-        <v>1.011938138897808</v>
+        <v>1.040792446869884</v>
       </c>
       <c r="F2">
-        <v>1.021244700618619</v>
+        <v>1.051423612689906</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047958247355383</v>
+        <v>1.055125319557209</v>
       </c>
       <c r="J2">
-        <v>1.026733862675699</v>
+        <v>1.049994028140139</v>
       </c>
       <c r="K2">
-        <v>1.033158457067194</v>
+        <v>1.055971853209057</v>
       </c>
       <c r="L2">
-        <v>1.023233624653176</v>
+        <v>1.051711290678166</v>
       </c>
       <c r="M2">
-        <v>1.032415789292758</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.062210172275488</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011942800542213</v>
+        <v>1.03467090667634</v>
       </c>
       <c r="D3">
-        <v>1.027485919440338</v>
+        <v>1.049781471378822</v>
       </c>
       <c r="E3">
-        <v>1.018063512740063</v>
+        <v>1.045831680221919</v>
       </c>
       <c r="F3">
-        <v>1.027903875979138</v>
+        <v>1.056572405091324</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050632349543535</v>
+        <v>1.056944616784914</v>
       </c>
       <c r="J3">
-        <v>1.032113104079731</v>
+        <v>1.054259047539361</v>
       </c>
       <c r="K3">
-        <v>1.037778788630913</v>
+        <v>1.059814675383012</v>
       </c>
       <c r="L3">
-        <v>1.028470368965153</v>
+        <v>1.055909889409955</v>
       </c>
       <c r="M3">
-        <v>1.038191748997327</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.066529199283319</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016495854220019</v>
+        <v>1.038481711547898</v>
       </c>
       <c r="D4">
-        <v>1.030934797484014</v>
+        <v>1.052736233346994</v>
       </c>
       <c r="E4">
-        <v>1.021915469867343</v>
+        <v>1.049019915648764</v>
       </c>
       <c r="F4">
-        <v>1.032092424830104</v>
+        <v>1.059829531707783</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052297826263224</v>
+        <v>1.05808329403302</v>
       </c>
       <c r="J4">
-        <v>1.035486804156346</v>
+        <v>1.05694976988373</v>
       </c>
       <c r="K4">
-        <v>1.040673669911282</v>
+        <v>1.062237263474151</v>
       </c>
       <c r="L4">
-        <v>1.031756398435159</v>
+        <v>1.05856063233259</v>
       </c>
       <c r="M4">
-        <v>1.041818357367115</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.069255756687101</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018378652445287</v>
+        <v>1.040062439458193</v>
       </c>
       <c r="D5">
-        <v>1.032361385384027</v>
+        <v>1.053962377450223</v>
       </c>
       <c r="E5">
-        <v>1.023509526319541</v>
+        <v>1.050343640126633</v>
       </c>
       <c r="F5">
-        <v>1.033826000942285</v>
+        <v>1.061181753168313</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05298315835227</v>
+        <v>1.058553076514052</v>
       </c>
       <c r="J5">
-        <v>1.036880787651232</v>
+        <v>1.058065097219448</v>
       </c>
       <c r="K5">
-        <v>1.041869102365059</v>
+        <v>1.063241004700919</v>
       </c>
       <c r="L5">
-        <v>1.033114555465938</v>
+        <v>1.059659843296592</v>
       </c>
       <c r="M5">
-        <v>1.043317813913733</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.070386349284744</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018692996540407</v>
+        <v>1.04032662747188</v>
       </c>
       <c r="D6">
-        <v>1.032599582687548</v>
+        <v>1.054167331211283</v>
       </c>
       <c r="E6">
-        <v>1.023775730172764</v>
+        <v>1.050564946055924</v>
       </c>
       <c r="F6">
-        <v>1.034115517934684</v>
+        <v>1.061407817002227</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053097377765312</v>
+        <v>1.058631440694976</v>
       </c>
       <c r="J6">
-        <v>1.037113453414145</v>
+        <v>1.05825145480224</v>
       </c>
       <c r="K6">
-        <v>1.0420685863003</v>
+        <v>1.063408691161501</v>
       </c>
       <c r="L6">
-        <v>1.033341264705528</v>
+        <v>1.059843534638648</v>
       </c>
       <c r="M6">
-        <v>1.043568140882967</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.070575281369246</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016521132993364</v>
+        <v>1.038502915864667</v>
       </c>
       <c r="D7">
-        <v>1.030953949677862</v>
+        <v>1.052752679281751</v>
       </c>
       <c r="E7">
-        <v>1.021936867390835</v>
+        <v>1.049037667634488</v>
       </c>
       <c r="F7">
-        <v>1.032115694256293</v>
+        <v>1.059847666280061</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052307041121173</v>
+        <v>1.058089605936952</v>
       </c>
       <c r="J7">
-        <v>1.035505524547596</v>
+        <v>1.05696473437037</v>
       </c>
       <c r="K7">
-        <v>1.040689726706678</v>
+        <v>1.062250732564772</v>
       </c>
       <c r="L7">
-        <v>1.031774636132726</v>
+        <v>1.058575378790753</v>
       </c>
       <c r="M7">
-        <v>1.04183849035787</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.069270924377926</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007172616031996</v>
+        <v>1.030696374697756</v>
       </c>
       <c r="D8">
-        <v>1.023874239807433</v>
+        <v>1.046701721644368</v>
       </c>
       <c r="E8">
-        <v>1.014032220543935</v>
+        <v>1.042510950543644</v>
       </c>
       <c r="F8">
-        <v>1.023521087394173</v>
+        <v>1.053179565409527</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048875833149839</v>
+        <v>1.055748328311156</v>
       </c>
       <c r="J8">
-        <v>1.028574782292652</v>
+        <v>1.051450123950311</v>
       </c>
       <c r="K8">
-        <v>1.034740245885916</v>
+        <v>1.05728417334254</v>
       </c>
       <c r="L8">
-        <v>1.025025412886044</v>
+        <v>1.05314430140524</v>
       </c>
       <c r="M8">
-        <v>1.034391604310319</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.06368432833588</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9895502817542114</v>
+        <v>1.016177203670409</v>
       </c>
       <c r="D9">
-        <v>1.010551036085398</v>
+        <v>1.035470740615118</v>
       </c>
       <c r="E9">
-        <v>0.9991791081922703</v>
+        <v>1.030418921924459</v>
       </c>
       <c r="F9">
-        <v>1.007378391663084</v>
+        <v>1.040822398391881</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042298705337132</v>
+        <v>1.051312750826551</v>
       </c>
       <c r="J9">
-        <v>1.015477520786183</v>
+        <v>1.041171357436732</v>
       </c>
       <c r="K9">
-        <v>1.023475218472702</v>
+        <v>1.048013398462166</v>
       </c>
       <c r="L9">
-        <v>1.012285517848358</v>
+        <v>1.043037025380262</v>
       </c>
       <c r="M9">
-        <v>1.020352883222703</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.05328614678496</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9768882304308503</v>
+        <v>1.005910737511454</v>
       </c>
       <c r="D10">
-        <v>1.001001838841383</v>
+        <v>1.027550617833603</v>
       </c>
       <c r="E10">
-        <v>0.9885465050862294</v>
+        <v>1.021905465525193</v>
       </c>
       <c r="F10">
-        <v>0.9958265813939801</v>
+        <v>1.032120404102213</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037503242237654</v>
+        <v>1.048124699742792</v>
       </c>
       <c r="J10">
-        <v>1.006049805847291</v>
+        <v>1.033891790634995</v>
       </c>
       <c r="K10">
-        <v>1.015353028307591</v>
+        <v>1.041439638282492</v>
       </c>
       <c r="L10">
-        <v>1.003125681712825</v>
+        <v>1.035890161776694</v>
       </c>
       <c r="M10">
-        <v>1.010271599275317</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.045932961646952</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9711516423406954</v>
+        <v>1.001307463404921</v>
       </c>
       <c r="D11">
-        <v>0.9966834059641021</v>
+        <v>1.024005829418236</v>
       </c>
       <c r="E11">
-        <v>0.9837406939600302</v>
+        <v>1.018098166333497</v>
       </c>
       <c r="F11">
-        <v>0.9906060501108445</v>
+        <v>1.028228421296125</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035315298963937</v>
+        <v>1.046683798544811</v>
       </c>
       <c r="J11">
-        <v>1.001775819063087</v>
+        <v>1.030625951343693</v>
       </c>
       <c r="K11">
-        <v>1.011668140603049</v>
+        <v>1.038488799292248</v>
       </c>
       <c r="L11">
-        <v>0.9989758919994381</v>
+        <v>1.032686662289382</v>
       </c>
       <c r="M11">
-        <v>1.005707323921479</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.042636927705735</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9689790267703935</v>
+        <v>0.9995721311903702</v>
       </c>
       <c r="D12">
-        <v>0.9950492811803854</v>
+        <v>1.022670617405377</v>
       </c>
       <c r="E12">
-        <v>0.9819224764305742</v>
+        <v>1.016664509716614</v>
       </c>
       <c r="F12">
-        <v>0.9886310237872376</v>
+        <v>1.026762828465063</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034484470351814</v>
+        <v>1.046138966647334</v>
       </c>
       <c r="J12">
-        <v>1.000156851513166</v>
+        <v>1.029394610237913</v>
       </c>
       <c r="K12">
-        <v>1.010271947776689</v>
+        <v>1.037376001985601</v>
       </c>
       <c r="L12">
-        <v>0.9974044063987497</v>
+        <v>1.031479259724503</v>
       </c>
       <c r="M12">
-        <v>1.003979325568856</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.041394649556892</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9694470153405998</v>
+        <v>0.9999455485966644</v>
       </c>
       <c r="D13">
-        <v>0.9954012105285049</v>
+        <v>1.022957883367739</v>
       </c>
       <c r="E13">
-        <v>0.9823140382499085</v>
+        <v>1.016972936401228</v>
       </c>
       <c r="F13">
-        <v>0.9890563511242788</v>
+        <v>1.027078127736841</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034663530421228</v>
+        <v>1.046256279264162</v>
       </c>
       <c r="J13">
-        <v>1.000505593017404</v>
+        <v>1.029659583614149</v>
       </c>
       <c r="K13">
-        <v>1.010572717588869</v>
+        <v>1.037615475470591</v>
       </c>
       <c r="L13">
-        <v>0.9977428997281593</v>
+        <v>1.031739061922563</v>
       </c>
       <c r="M13">
-        <v>1.004351510962296</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.041661955908112</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9709729286563338</v>
+        <v>1.001164550689863</v>
       </c>
       <c r="D14">
-        <v>0.9965489575760161</v>
+        <v>1.023895845473813</v>
       </c>
       <c r="E14">
-        <v>0.983591092783816</v>
+        <v>1.017980064618899</v>
       </c>
       <c r="F14">
-        <v>0.9904435450322926</v>
+        <v>1.02810768967743</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03524700086156</v>
+        <v>1.046638962023957</v>
       </c>
       <c r="J14">
-        <v>1.001642651961177</v>
+        <v>1.03052454805332</v>
       </c>
       <c r="K14">
-        <v>1.011553305015808</v>
+        <v>1.03839716268806</v>
       </c>
       <c r="L14">
-        <v>0.9988466215019635</v>
+        <v>1.032587221491161</v>
       </c>
       <c r="M14">
-        <v>1.005565169553123</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.04253461451161</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9719074388936308</v>
+        <v>1.001912187398209</v>
       </c>
       <c r="D15">
-        <v>0.9972520584558742</v>
+        <v>1.02447126323575</v>
       </c>
       <c r="E15">
-        <v>0.9843734487899177</v>
+        <v>1.018597970788069</v>
       </c>
       <c r="F15">
-        <v>0.9912933871983012</v>
+        <v>1.028739353540821</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035604049641949</v>
+        <v>1.046873454312731</v>
       </c>
       <c r="J15">
-        <v>1.002338984264455</v>
+        <v>1.031055024134645</v>
       </c>
       <c r="K15">
-        <v>1.012153766693294</v>
+        <v>1.038876536895734</v>
       </c>
       <c r="L15">
-        <v>0.9995225962973259</v>
+        <v>1.03310744884106</v>
       </c>
       <c r="M15">
-        <v>1.00630853430248</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.043069868966524</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9772632996091306</v>
+        <v>1.006212770053448</v>
       </c>
       <c r="D16">
-        <v>1.00128436624443</v>
+        <v>1.027783344643568</v>
       </c>
       <c r="E16">
-        <v>0.9888609675077216</v>
+        <v>1.022155488474506</v>
       </c>
       <c r="F16">
-        <v>0.9961681946360457</v>
+        <v>1.032375981105067</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037645986239214</v>
+        <v>1.048219009413692</v>
       </c>
       <c r="J16">
-        <v>1.006329201298411</v>
+        <v>1.034106039484688</v>
       </c>
       <c r="K16">
-        <v>1.015593860035704</v>
+        <v>1.04163318999593</v>
       </c>
       <c r="L16">
-        <v>1.003397017085304</v>
+        <v>1.036100380257118</v>
       </c>
       <c r="M16">
-        <v>1.010570097573145</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.046149251994424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9805524956565429</v>
+        <v>1.008866967058689</v>
       </c>
       <c r="D17">
-        <v>1.003762920563188</v>
+        <v>1.029829241826667</v>
       </c>
       <c r="E17">
-        <v>0.9916199655290712</v>
+        <v>1.02435377888024</v>
       </c>
       <c r="F17">
-        <v>0.999165488543182</v>
+        <v>1.034623063754667</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038896072598424</v>
+        <v>1.049046493294993</v>
       </c>
       <c r="J17">
-        <v>1.008779086088644</v>
+        <v>1.035988614137004</v>
       </c>
       <c r="K17">
-        <v>1.017705292274566</v>
+        <v>1.043333717948325</v>
       </c>
       <c r="L17">
-        <v>1.005776540025456</v>
+        <v>1.037947860057736</v>
       </c>
       <c r="M17">
-        <v>1.013188165606484</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.04805008862274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9824468072925391</v>
+        <v>1.010400014758273</v>
       </c>
       <c r="D18">
-        <v>1.005191091601951</v>
+        <v>1.031011538316796</v>
       </c>
       <c r="E18">
-        <v>0.9932099765790114</v>
+        <v>1.025624431038473</v>
       </c>
       <c r="F18">
-        <v>1.000892901343642</v>
+        <v>1.03592188343826</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039614573084485</v>
+        <v>1.04952335634852</v>
       </c>
       <c r="J18">
-        <v>1.010189757217593</v>
+        <v>1.037075798926488</v>
       </c>
       <c r="K18">
-        <v>1.01892081764145</v>
+        <v>1.044315613767897</v>
       </c>
       <c r="L18">
-        <v>1.007146953099936</v>
+        <v>1.039015041680065</v>
       </c>
       <c r="M18">
-        <v>1.014696239926423</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.04914808574751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9830887137242442</v>
+        <v>1.010920233814448</v>
       </c>
       <c r="D19">
-        <v>1.005675158501121</v>
+        <v>1.031412832640547</v>
       </c>
       <c r="E19">
-        <v>0.993748940865625</v>
+        <v>1.026055764770809</v>
       </c>
       <c r="F19">
-        <v>1.001478453218336</v>
+        <v>1.036362772692553</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039857795251835</v>
+        <v>1.049684986943611</v>
       </c>
       <c r="J19">
-        <v>1.010667728760137</v>
+        <v>1.037444687760521</v>
       </c>
       <c r="K19">
-        <v>1.019332623409561</v>
+        <v>1.044648750006611</v>
       </c>
       <c r="L19">
-        <v>1.00761132717064</v>
+        <v>1.039377187744509</v>
       </c>
       <c r="M19">
-        <v>1.015207308646643</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.049520687789852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9802021262156029</v>
+        <v>1.008583770934006</v>
       </c>
       <c r="D20">
-        <v>1.003498825093299</v>
+        <v>1.029610886690462</v>
       </c>
       <c r="E20">
-        <v>0.991325963030194</v>
+        <v>1.024119129159829</v>
       </c>
       <c r="F20">
-        <v>0.9988460855763007</v>
+        <v>1.034383209471347</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038763061550254</v>
+        <v>1.048958315141389</v>
       </c>
       <c r="J20">
-        <v>1.008518147856319</v>
+        <v>1.035787766150181</v>
       </c>
       <c r="K20">
-        <v>1.017480429622075</v>
+        <v>1.043152308300551</v>
       </c>
       <c r="L20">
-        <v>1.005523069188355</v>
+        <v>1.037750728762102</v>
       </c>
       <c r="M20">
-        <v>1.012909255570055</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.047847264528333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.970524770653853</v>
+        <v>1.000806303076874</v>
       </c>
       <c r="D21">
-        <v>0.9962118262501691</v>
+        <v>1.023620160396442</v>
       </c>
       <c r="E21">
-        <v>0.9832159708127826</v>
+        <v>1.01768403851399</v>
       </c>
       <c r="F21">
-        <v>0.9900360682534159</v>
+        <v>1.027805070874405</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035075695798562</v>
+        <v>1.04652654151175</v>
       </c>
       <c r="J21">
-        <v>1.001308706455277</v>
+        <v>1.030270351729085</v>
       </c>
       <c r="K21">
-        <v>1.011265323913671</v>
+        <v>1.038167445852885</v>
       </c>
       <c r="L21">
-        <v>0.9985224546816666</v>
+        <v>1.032337951747573</v>
       </c>
       <c r="M21">
-        <v>1.005208701558894</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.042278144533182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9641962585539168</v>
+        <v>0.995767931084953</v>
       </c>
       <c r="D22">
-        <v>0.9914547670322563</v>
+        <v>1.019745727865165</v>
       </c>
       <c r="E22">
-        <v>0.9779235769515642</v>
+        <v>1.013524743981876</v>
       </c>
       <c r="F22">
-        <v>0.9842874016595222</v>
+        <v>1.023553040766292</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032651592458673</v>
+        <v>1.04494164508586</v>
       </c>
       <c r="J22">
-        <v>0.9965925101049716</v>
+        <v>1.026695004243065</v>
       </c>
       <c r="K22">
-        <v>1.007197428853449</v>
+        <v>1.034935910898469</v>
       </c>
       <c r="L22">
-        <v>0.9939454353758588</v>
+        <v>1.028832951465958</v>
       </c>
       <c r="M22">
-        <v>1.000176689410343</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.038671914883718</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9675756010142849</v>
+        <v>0.9984535645739018</v>
       </c>
       <c r="D23">
-        <v>0.993994121079333</v>
+        <v>1.021810287062119</v>
       </c>
       <c r="E23">
-        <v>0.9807485344234709</v>
+        <v>1.015740867256093</v>
       </c>
       <c r="F23">
-        <v>0.9873558618721435</v>
+        <v>1.025818598246543</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033947185298475</v>
+        <v>1.04578732347291</v>
       </c>
       <c r="J23">
-        <v>0.9991109986024231</v>
+        <v>1.028600864764131</v>
       </c>
       <c r="K23">
-        <v>1.009369907375931</v>
+        <v>1.036658612456755</v>
       </c>
       <c r="L23">
-        <v>0.9963893530028354</v>
+        <v>1.030701069535875</v>
       </c>
       <c r="M23">
-        <v>1.002863304531205</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.040593982866058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9803605176631552</v>
+        <v>1.008711781607767</v>
       </c>
       <c r="D24">
-        <v>1.003618212450187</v>
+        <v>1.029709586008711</v>
       </c>
       <c r="E24">
-        <v>0.9914588694338666</v>
+        <v>1.024225192938473</v>
       </c>
       <c r="F24">
-        <v>0.9989904742596581</v>
+        <v>1.034491625869102</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038823196338349</v>
+        <v>1.048998176919998</v>
       </c>
       <c r="J24">
-        <v>1.008636110986519</v>
+        <v>1.035878554274037</v>
       </c>
       <c r="K24">
-        <v>1.017582084770419</v>
+        <v>1.043234310317001</v>
       </c>
       <c r="L24">
-        <v>1.005637655713631</v>
+        <v>1.037839836033553</v>
       </c>
       <c r="M24">
-        <v>1.013035341525408</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.047938945076333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9942558115182647</v>
+        <v>1.0200284100156</v>
       </c>
       <c r="D25">
-        <v>1.014105212047304</v>
+        <v>1.038446533798095</v>
       </c>
       <c r="E25">
-        <v>1.003139010267897</v>
+        <v>1.033620401223183</v>
       </c>
       <c r="F25">
-        <v>1.01168137483744</v>
+        <v>1.044094419045028</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044067135173416</v>
+        <v>1.052498395408776</v>
       </c>
       <c r="J25">
-        <v>1.018978049055795</v>
+        <v>1.043900039917601</v>
       </c>
       <c r="K25">
-        <v>1.026488438875178</v>
+        <v>1.050475956410595</v>
       </c>
       <c r="L25">
-        <v>1.015688791800852</v>
+        <v>1.04571829611397</v>
       </c>
       <c r="M25">
-        <v>1.024101019081926</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.056044724899227</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028637373684413</v>
+        <v>1.005868436103729</v>
       </c>
       <c r="D2">
-        <v>1.045107101235883</v>
+        <v>1.021482909778849</v>
       </c>
       <c r="E2">
-        <v>1.040792446869884</v>
+        <v>1.018892171457462</v>
       </c>
       <c r="F2">
-        <v>1.051423612689906</v>
+        <v>1.025539616726788</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055125319557209</v>
+        <v>1.043859990703646</v>
       </c>
       <c r="J2">
-        <v>1.049994028140139</v>
+        <v>1.027875028893313</v>
       </c>
       <c r="K2">
-        <v>1.055971853209057</v>
+        <v>1.032650851726726</v>
       </c>
       <c r="L2">
-        <v>1.051711290678166</v>
+        <v>1.030094436051907</v>
       </c>
       <c r="M2">
-        <v>1.062210172275488</v>
+        <v>1.036654251060445</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03467090667634</v>
+        <v>1.014143372030927</v>
       </c>
       <c r="D3">
-        <v>1.049781471378822</v>
+        <v>1.027763268246125</v>
       </c>
       <c r="E3">
-        <v>1.045831680221919</v>
+        <v>1.026034966323855</v>
       </c>
       <c r="F3">
-        <v>1.056572405091324</v>
+        <v>1.033065188697833</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056944616784914</v>
+        <v>1.046287981890603</v>
       </c>
       <c r="J3">
-        <v>1.054259047539361</v>
+        <v>1.034255761991824</v>
       </c>
       <c r="K3">
-        <v>1.059814675383012</v>
+        <v>1.038052821499721</v>
       </c>
       <c r="L3">
-        <v>1.055909889409955</v>
+        <v>1.036345219125847</v>
       </c>
       <c r="M3">
-        <v>1.066529199283319</v>
+        <v>1.043291777059267</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038481711547898</v>
+        <v>1.019326212007097</v>
       </c>
       <c r="D4">
-        <v>1.052736233346994</v>
+        <v>1.031698591475282</v>
       </c>
       <c r="E4">
-        <v>1.049019915648764</v>
+        <v>1.030514944833465</v>
       </c>
       <c r="F4">
-        <v>1.059829531707783</v>
+        <v>1.037786264937223</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05808329403302</v>
+        <v>1.047795451855351</v>
       </c>
       <c r="J4">
-        <v>1.05694976988373</v>
+        <v>1.038248146067285</v>
       </c>
       <c r="K4">
-        <v>1.062237263474151</v>
+        <v>1.041428922247098</v>
       </c>
       <c r="L4">
-        <v>1.05856063233259</v>
+        <v>1.040258519193359</v>
       </c>
       <c r="M4">
-        <v>1.069255756687101</v>
+        <v>1.047449068477465</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040062439458193</v>
+        <v>1.021466501191021</v>
       </c>
       <c r="D5">
-        <v>1.053962377450223</v>
+        <v>1.033323993394545</v>
       </c>
       <c r="E5">
-        <v>1.050343640126633</v>
+        <v>1.032366368542112</v>
       </c>
       <c r="F5">
-        <v>1.061181753168313</v>
+        <v>1.039737574552781</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058553076514052</v>
+        <v>1.048414716503023</v>
       </c>
       <c r="J5">
-        <v>1.058065097219448</v>
+        <v>1.039895774106376</v>
       </c>
       <c r="K5">
-        <v>1.063241004700919</v>
+        <v>1.042821251350176</v>
       </c>
       <c r="L5">
-        <v>1.059659843296592</v>
+        <v>1.041874031318006</v>
       </c>
       <c r="M5">
-        <v>1.070386349284744</v>
+        <v>1.049165752605812</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04032662747188</v>
+        <v>1.021823671528144</v>
       </c>
       <c r="D6">
-        <v>1.054167331211283</v>
+        <v>1.033595252518269</v>
       </c>
       <c r="E6">
-        <v>1.050564946055924</v>
+        <v>1.032675411667418</v>
       </c>
       <c r="F6">
-        <v>1.061407817002227</v>
+        <v>1.040063305539375</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058631440694976</v>
+        <v>1.048517865471505</v>
       </c>
       <c r="J6">
-        <v>1.05825145480224</v>
+        <v>1.04017066517919</v>
       </c>
       <c r="K6">
-        <v>1.063408691161501</v>
+        <v>1.043053490632062</v>
       </c>
       <c r="L6">
-        <v>1.059843534638648</v>
+        <v>1.042143594497474</v>
       </c>
       <c r="M6">
-        <v>1.070575281369246</v>
+        <v>1.049452223433416</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.038502915864667</v>
+        <v>1.019354959097341</v>
       </c>
       <c r="D7">
-        <v>1.052752679281751</v>
+        <v>1.031720421956574</v>
       </c>
       <c r="E7">
-        <v>1.049037667634488</v>
+        <v>1.030539806704429</v>
       </c>
       <c r="F7">
-        <v>1.059847666280061</v>
+        <v>1.037812467139346</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058089605936952</v>
+        <v>1.047803782436836</v>
       </c>
       <c r="J7">
-        <v>1.05696473437037</v>
+        <v>1.03827028030261</v>
       </c>
       <c r="K7">
-        <v>1.062250732564772</v>
+        <v>1.041447630654271</v>
       </c>
       <c r="L7">
-        <v>1.058575378790753</v>
+        <v>1.040280219933272</v>
       </c>
       <c r="M7">
-        <v>1.069270924377926</v>
+        <v>1.047472126470721</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030696374697756</v>
+        <v>1.008702103256577</v>
       </c>
       <c r="D8">
-        <v>1.046701721644368</v>
+        <v>1.023633097772676</v>
       </c>
       <c r="E8">
-        <v>1.042510950543644</v>
+        <v>1.0213367603815</v>
       </c>
       <c r="F8">
-        <v>1.053179565409527</v>
+        <v>1.02811499656827</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055748328311156</v>
+        <v>1.044694185489087</v>
       </c>
       <c r="J8">
-        <v>1.051450123950311</v>
+        <v>1.030060852605909</v>
       </c>
       <c r="K8">
-        <v>1.05728417334254</v>
+        <v>1.034502183552173</v>
       </c>
       <c r="L8">
-        <v>1.05314430140524</v>
+        <v>1.032235264507695</v>
       </c>
       <c r="M8">
-        <v>1.06368432833588</v>
+        <v>1.038927137284159</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.016177203670409</v>
+        <v>0.9884897305013505</v>
       </c>
       <c r="D9">
-        <v>1.035470740615118</v>
+        <v>1.008309898249798</v>
       </c>
       <c r="E9">
-        <v>1.030418921924459</v>
+        <v>1.003931934096343</v>
       </c>
       <c r="F9">
-        <v>1.040822398391881</v>
+        <v>1.009783222855636</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051312750826551</v>
+        <v>1.038689734472693</v>
       </c>
       <c r="J9">
-        <v>1.041171357436732</v>
+        <v>1.014455597628722</v>
       </c>
       <c r="K9">
-        <v>1.048013398462166</v>
+        <v>1.021269576689053</v>
       </c>
       <c r="L9">
-        <v>1.043037025380262</v>
+        <v>1.016961538906767</v>
       </c>
       <c r="M9">
-        <v>1.05328614678496</v>
+        <v>1.022719543459947</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005910737511454</v>
+        <v>0.9738432535395266</v>
       </c>
       <c r="D10">
-        <v>1.027550617833603</v>
+        <v>0.9972324241589078</v>
       </c>
       <c r="E10">
-        <v>1.021905465525193</v>
+        <v>0.9913681579487204</v>
       </c>
       <c r="F10">
-        <v>1.032120404102213</v>
+        <v>0.9965555827001494</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048124699742792</v>
+        <v>1.034273339122702</v>
       </c>
       <c r="J10">
-        <v>1.033891790634995</v>
+        <v>1.00313451379142</v>
       </c>
       <c r="K10">
-        <v>1.041439638282492</v>
+        <v>1.011651828483932</v>
       </c>
       <c r="L10">
-        <v>1.035890161776694</v>
+        <v>1.005895031767583</v>
       </c>
       <c r="M10">
-        <v>1.045932961646952</v>
+        <v>1.010987306903916</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001307463404921</v>
+        <v>0.9671685532126688</v>
       </c>
       <c r="D11">
-        <v>1.024005829418236</v>
+        <v>0.9921934524790813</v>
       </c>
       <c r="E11">
-        <v>1.018098166333497</v>
+        <v>0.9856565898746761</v>
       </c>
       <c r="F11">
-        <v>1.028228421296125</v>
+        <v>0.9905433994826082</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046683798544811</v>
+        <v>1.032246700933457</v>
       </c>
       <c r="J11">
-        <v>1.030625951343693</v>
+        <v>0.9979739455397718</v>
       </c>
       <c r="K11">
-        <v>1.038488799292248</v>
+        <v>1.007264105911205</v>
       </c>
       <c r="L11">
-        <v>1.032686662289382</v>
+        <v>1.000854167777314</v>
       </c>
       <c r="M11">
-        <v>1.042636927705735</v>
+        <v>1.005645884437478</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9995721311903702</v>
+        <v>0.9646337462842515</v>
       </c>
       <c r="D12">
-        <v>1.022670617405377</v>
+        <v>0.9902815264897643</v>
       </c>
       <c r="E12">
-        <v>1.016664509716614</v>
+        <v>0.9834898997471205</v>
       </c>
       <c r="F12">
-        <v>1.026762828465063</v>
+        <v>0.9882628417610725</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046138966647334</v>
+        <v>1.031475106748215</v>
       </c>
       <c r="J12">
-        <v>1.029394610237913</v>
+        <v>0.9960141298075362</v>
       </c>
       <c r="K12">
-        <v>1.037376001985601</v>
+        <v>1.00559731604599</v>
       </c>
       <c r="L12">
-        <v>1.031479259724503</v>
+        <v>0.9989403933609815</v>
       </c>
       <c r="M12">
-        <v>1.041394649556892</v>
+        <v>1.003618415591443</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9999455485966644</v>
+        <v>0.9651800822080774</v>
       </c>
       <c r="D13">
-        <v>1.022957883367739</v>
+        <v>0.9906935291668396</v>
       </c>
       <c r="E13">
-        <v>1.016972936401228</v>
+        <v>0.983956783562387</v>
       </c>
       <c r="F13">
-        <v>1.027078127736841</v>
+        <v>0.98875425443869</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046256279264162</v>
+        <v>1.031641496554156</v>
       </c>
       <c r="J13">
-        <v>1.029659583614149</v>
+        <v>0.9964365336727788</v>
       </c>
       <c r="K13">
-        <v>1.037615475470591</v>
+        <v>1.005956583668665</v>
       </c>
       <c r="L13">
-        <v>1.031739061922563</v>
+        <v>0.999352847035536</v>
       </c>
       <c r="M13">
-        <v>1.041661955908112</v>
+        <v>1.004055353698083</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001164550689863</v>
+        <v>0.9669601931625855</v>
       </c>
       <c r="D14">
-        <v>1.023895845473813</v>
+        <v>0.9920362568631519</v>
       </c>
       <c r="E14">
-        <v>1.017980064618899</v>
+        <v>0.985478439619107</v>
       </c>
       <c r="F14">
-        <v>1.02810768967743</v>
+        <v>0.9903558833423658</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046638962023957</v>
+        <v>1.032183314802098</v>
       </c>
       <c r="J14">
-        <v>1.03052454805332</v>
+        <v>0.9978128488371818</v>
       </c>
       <c r="K14">
-        <v>1.03839716268806</v>
+        <v>1.007127105148953</v>
       </c>
       <c r="L14">
-        <v>1.032587221491161</v>
+        <v>1.000696843688497</v>
       </c>
       <c r="M14">
-        <v>1.04253461451161</v>
+        <v>1.005479205531305</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001912187398209</v>
+        <v>0.9680494399398166</v>
       </c>
       <c r="D15">
-        <v>1.02447126323575</v>
+        <v>0.99285810111517</v>
       </c>
       <c r="E15">
-        <v>1.018597970788069</v>
+        <v>0.9864098553540379</v>
       </c>
       <c r="F15">
-        <v>1.028739353540821</v>
+        <v>0.991336273259709</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046873454312731</v>
+        <v>1.032514601139102</v>
       </c>
       <c r="J15">
-        <v>1.031055024134645</v>
+        <v>0.9986550166170719</v>
       </c>
       <c r="K15">
-        <v>1.038876536895734</v>
+        <v>1.007843287296839</v>
       </c>
       <c r="L15">
-        <v>1.03310744884106</v>
+        <v>1.001519313118228</v>
       </c>
       <c r="M15">
-        <v>1.043069868966524</v>
+        <v>1.006350597537275</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006212770053448</v>
+        <v>0.9742787681630035</v>
       </c>
       <c r="D16">
-        <v>1.027783344643568</v>
+        <v>0.9975614251186534</v>
       </c>
       <c r="E16">
-        <v>1.022155488474506</v>
+        <v>0.9917411387046627</v>
       </c>
       <c r="F16">
-        <v>1.032375981105067</v>
+        <v>0.9969482183112488</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048219009413692</v>
+        <v>1.034405297853669</v>
       </c>
       <c r="J16">
-        <v>1.034106039484688</v>
+        <v>1.003471220575669</v>
       </c>
       <c r="K16">
-        <v>1.04163318999593</v>
+        <v>1.011938041148495</v>
       </c>
       <c r="L16">
-        <v>1.036100380257118</v>
+        <v>1.006224006366713</v>
       </c>
       <c r="M16">
-        <v>1.046149251994424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.011335952617714</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.008866967058689</v>
+        <v>0.978093538290124</v>
       </c>
       <c r="D17">
-        <v>1.029829241826667</v>
+        <v>1.000444290865276</v>
       </c>
       <c r="E17">
-        <v>1.02435377888024</v>
+        <v>0.9950097609772851</v>
       </c>
       <c r="F17">
-        <v>1.034623063754667</v>
+        <v>1.000389218445742</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049046493294993</v>
+        <v>1.035559596955651</v>
       </c>
       <c r="J17">
-        <v>1.035988614137004</v>
+        <v>1.006420381243633</v>
       </c>
       <c r="K17">
-        <v>1.043333717948325</v>
+        <v>1.014444534535356</v>
       </c>
       <c r="L17">
-        <v>1.037947860057736</v>
+        <v>1.009105856588403</v>
       </c>
       <c r="M17">
-        <v>1.04805008862274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.014390426692806</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010400014758273</v>
+        <v>0.9802869468890181</v>
       </c>
       <c r="D18">
-        <v>1.031011538316796</v>
+        <v>1.002102720186483</v>
       </c>
       <c r="E18">
-        <v>1.025624431038473</v>
+        <v>0.9968904387967381</v>
       </c>
       <c r="F18">
-        <v>1.03592188343826</v>
+        <v>1.002369188998745</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04952335634852</v>
+        <v>1.036221973472665</v>
       </c>
       <c r="J18">
-        <v>1.037075798926488</v>
+        <v>1.008115947671383</v>
       </c>
       <c r="K18">
-        <v>1.044315613767897</v>
+        <v>1.015885256383993</v>
       </c>
       <c r="L18">
-        <v>1.039015041680065</v>
+        <v>1.010763064062551</v>
       </c>
       <c r="M18">
-        <v>1.04914808574751</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.016147152085867</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010920233814448</v>
+        <v>0.9810296235061685</v>
       </c>
       <c r="D19">
-        <v>1.031412832640547</v>
+        <v>1.002664390802017</v>
       </c>
       <c r="E19">
-        <v>1.026055764770809</v>
+        <v>0.9975274387741426</v>
       </c>
       <c r="F19">
-        <v>1.036362772692553</v>
+        <v>1.003039839214646</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049684986943611</v>
+        <v>1.036446022605072</v>
       </c>
       <c r="J19">
-        <v>1.037444687760521</v>
+        <v>1.008690029669914</v>
       </c>
       <c r="K19">
-        <v>1.044648750006611</v>
+        <v>1.016372993902438</v>
       </c>
       <c r="L19">
-        <v>1.039377187744509</v>
+        <v>1.011324215358218</v>
       </c>
       <c r="M19">
-        <v>1.049520687789852</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.016742043648853</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008583770934006</v>
+        <v>0.9776875639690196</v>
       </c>
       <c r="D20">
-        <v>1.029610886690462</v>
+        <v>1.000137401503456</v>
       </c>
       <c r="E20">
-        <v>1.024119129159829</v>
+        <v>0.9946617725877417</v>
       </c>
       <c r="F20">
-        <v>1.034383209471347</v>
+        <v>1.000022866625106</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048958315141389</v>
+        <v>1.035436890760284</v>
       </c>
       <c r="J20">
-        <v>1.035787766150181</v>
+        <v>1.006106539508772</v>
       </c>
       <c r="K20">
-        <v>1.043152308300551</v>
+        <v>1.014177835301706</v>
       </c>
       <c r="L20">
-        <v>1.037750728762102</v>
+        <v>1.008799142280949</v>
       </c>
       <c r="M20">
-        <v>1.047847264528333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.014065313962817</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000806303076874</v>
+        <v>0.9664375765397509</v>
       </c>
       <c r="D21">
-        <v>1.023620160396442</v>
+        <v>0.9916420010816888</v>
       </c>
       <c r="E21">
-        <v>1.01768403851399</v>
+        <v>0.985031635092637</v>
       </c>
       <c r="F21">
-        <v>1.027805070874405</v>
+        <v>0.9898855917106041</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04652654151175</v>
+        <v>1.032024296493235</v>
       </c>
       <c r="J21">
-        <v>1.030270351729085</v>
+        <v>0.9974087802570926</v>
       </c>
       <c r="K21">
-        <v>1.038167445852885</v>
+        <v>1.006783467469342</v>
       </c>
       <c r="L21">
-        <v>1.032337951747573</v>
+        <v>1.000302247174283</v>
       </c>
       <c r="M21">
-        <v>1.042278144533182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.005061152163217</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.995767931084953</v>
+        <v>0.9590395855534135</v>
       </c>
       <c r="D22">
-        <v>1.019745727865165</v>
+        <v>0.9860655190324343</v>
       </c>
       <c r="E22">
-        <v>1.013524743981876</v>
+        <v>0.9787128102760209</v>
       </c>
       <c r="F22">
-        <v>1.023553040766292</v>
+        <v>0.9832350070206594</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04494164508586</v>
+        <v>1.029768827048968</v>
       </c>
       <c r="J22">
-        <v>1.026695004243065</v>
+        <v>0.9916891196970644</v>
       </c>
       <c r="K22">
-        <v>1.034935910898469</v>
+        <v>1.001918168728035</v>
       </c>
       <c r="L22">
-        <v>1.028832951465958</v>
+        <v>0.9947181036090392</v>
       </c>
       <c r="M22">
-        <v>1.038671914883718</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.999146061773502</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9984535645739018</v>
+        <v>0.9629942659209603</v>
       </c>
       <c r="D23">
-        <v>1.021810287062119</v>
+        <v>0.9890454353531196</v>
       </c>
       <c r="E23">
-        <v>1.015740867256093</v>
+        <v>0.9820892108974242</v>
       </c>
       <c r="F23">
-        <v>1.025818598246543</v>
+        <v>0.986788588923688</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04578732347291</v>
+        <v>1.030975520129018</v>
       </c>
       <c r="J23">
-        <v>1.028600864764131</v>
+        <v>0.9947465648431719</v>
       </c>
       <c r="K23">
-        <v>1.036658612456755</v>
+        <v>1.004519148319626</v>
       </c>
       <c r="L23">
-        <v>1.030701069535875</v>
+        <v>0.9977027752778782</v>
       </c>
       <c r="M23">
-        <v>1.040593982866058</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.0023073903767</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008711781607767</v>
+        <v>0.97787110378824</v>
       </c>
       <c r="D24">
-        <v>1.029709586008711</v>
+        <v>1.000276142692593</v>
       </c>
       <c r="E24">
-        <v>1.024225192938473</v>
+        <v>0.9948190931354108</v>
       </c>
       <c r="F24">
-        <v>1.034491625869102</v>
+        <v>1.000188488670105</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048998176919998</v>
+        <v>1.035492369991893</v>
       </c>
       <c r="J24">
-        <v>1.035878554274037</v>
+        <v>1.006248426886718</v>
       </c>
       <c r="K24">
-        <v>1.043234310317001</v>
+        <v>1.014298410690567</v>
       </c>
       <c r="L24">
-        <v>1.037839836033553</v>
+        <v>1.008937806304958</v>
       </c>
       <c r="M24">
-        <v>1.047938945076333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.014212295044445</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0200284100156</v>
+        <v>0.9939051146941816</v>
       </c>
       <c r="D25">
-        <v>1.038446533798095</v>
+        <v>1.012411810619031</v>
       </c>
       <c r="E25">
-        <v>1.033620401223183</v>
+        <v>1.00858767112627</v>
       </c>
       <c r="F25">
-        <v>1.044094419045028</v>
+        <v>1.014686003066325</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052498395408776</v>
+        <v>1.04030999380614</v>
       </c>
       <c r="J25">
-        <v>1.043900039917601</v>
+        <v>1.01863935153463</v>
       </c>
       <c r="K25">
-        <v>1.050475956410595</v>
+        <v>1.024820456918564</v>
       </c>
       <c r="L25">
-        <v>1.04571829611397</v>
+        <v>1.02105412139594</v>
       </c>
       <c r="M25">
-        <v>1.056044724899227</v>
+        <v>1.027060536561206</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005868436103729</v>
+        <v>1.056748553031213</v>
       </c>
       <c r="D2">
-        <v>1.021482909778849</v>
+        <v>1.054271244083026</v>
       </c>
       <c r="E2">
-        <v>1.018892171457462</v>
+        <v>1.062098227298203</v>
       </c>
       <c r="F2">
-        <v>1.025539616726788</v>
+        <v>1.07078119812752</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043859990703646</v>
+        <v>1.041198566114515</v>
       </c>
       <c r="J2">
-        <v>1.027875028893313</v>
+        <v>1.061748569773783</v>
       </c>
       <c r="K2">
-        <v>1.032650851726726</v>
+        <v>1.057014914388477</v>
       </c>
       <c r="L2">
-        <v>1.030094436051907</v>
+        <v>1.064820496232767</v>
       </c>
       <c r="M2">
-        <v>1.036654251060445</v>
+        <v>1.073480121093358</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014143372030927</v>
+        <v>1.058371590284792</v>
       </c>
       <c r="D3">
-        <v>1.027763268246125</v>
+        <v>1.055503062703237</v>
       </c>
       <c r="E3">
-        <v>1.026034966323855</v>
+        <v>1.063544809407953</v>
       </c>
       <c r="F3">
-        <v>1.033065188697833</v>
+        <v>1.072313733926125</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046287981890603</v>
+        <v>1.041579471626975</v>
       </c>
       <c r="J3">
-        <v>1.034255761991824</v>
+        <v>1.063020560694668</v>
       </c>
       <c r="K3">
-        <v>1.038052821499721</v>
+        <v>1.058058873017664</v>
       </c>
       <c r="L3">
-        <v>1.036345219125847</v>
+        <v>1.066080238859819</v>
       </c>
       <c r="M3">
-        <v>1.043291777059267</v>
+        <v>1.074827314628469</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019326212007097</v>
+        <v>1.059419962158906</v>
       </c>
       <c r="D4">
-        <v>1.031698591475282</v>
+        <v>1.056298266789983</v>
       </c>
       <c r="E4">
-        <v>1.030514944833465</v>
+        <v>1.064479359051927</v>
       </c>
       <c r="F4">
-        <v>1.037786264937223</v>
+        <v>1.073303973633464</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047795451855351</v>
+        <v>1.041823749525427</v>
       </c>
       <c r="J4">
-        <v>1.038248146067285</v>
+        <v>1.063841422877484</v>
       </c>
       <c r="K4">
-        <v>1.041428922247098</v>
+        <v>1.058731960273041</v>
       </c>
       <c r="L4">
-        <v>1.040258519193359</v>
+        <v>1.066893373492229</v>
       </c>
       <c r="M4">
-        <v>1.047449068477465</v>
+        <v>1.075697122019768</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021466501191021</v>
+        <v>1.059860266817201</v>
       </c>
       <c r="D5">
-        <v>1.033323993394545</v>
+        <v>1.056632130791778</v>
       </c>
       <c r="E5">
-        <v>1.032366368542112</v>
+        <v>1.064871896053509</v>
       </c>
       <c r="F5">
-        <v>1.039737574552781</v>
+        <v>1.073719940487428</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048414716503023</v>
+        <v>1.041925921480718</v>
       </c>
       <c r="J5">
-        <v>1.039895774106376</v>
+        <v>1.064185994068419</v>
       </c>
       <c r="K5">
-        <v>1.042821251350176</v>
+        <v>1.059014352150664</v>
       </c>
       <c r="L5">
-        <v>1.041874031318006</v>
+        <v>1.067234743140965</v>
       </c>
       <c r="M5">
-        <v>1.049165752605812</v>
+        <v>1.076062337903095</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021823671528144</v>
+        <v>1.059934170930517</v>
       </c>
       <c r="D6">
-        <v>1.033595252518269</v>
+        <v>1.056688162429831</v>
       </c>
       <c r="E6">
-        <v>1.032675411667418</v>
+        <v>1.064937784587706</v>
       </c>
       <c r="F6">
-        <v>1.040063305539375</v>
+        <v>1.073789764050708</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048517865471505</v>
+        <v>1.041943046039831</v>
       </c>
       <c r="J6">
-        <v>1.04017066517919</v>
+        <v>1.064243818858655</v>
       </c>
       <c r="K6">
-        <v>1.043053490632062</v>
+        <v>1.059061733510471</v>
       </c>
       <c r="L6">
-        <v>1.042143594497474</v>
+        <v>1.067292033133768</v>
       </c>
       <c r="M6">
-        <v>1.049452223433416</v>
+        <v>1.076123633026365</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019354959097341</v>
+        <v>1.059425847210402</v>
       </c>
       <c r="D7">
-        <v>1.031720421956574</v>
+        <v>1.056302729615854</v>
       </c>
       <c r="E7">
-        <v>1.030539806704429</v>
+        <v>1.064484605505458</v>
       </c>
       <c r="F7">
-        <v>1.037812467139346</v>
+        <v>1.073309533087467</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047803782436836</v>
+        <v>1.041825116801328</v>
       </c>
       <c r="J7">
-        <v>1.03827028030261</v>
+        <v>1.063846029084298</v>
       </c>
       <c r="K7">
-        <v>1.041447630654271</v>
+        <v>1.058735735853815</v>
       </c>
       <c r="L7">
-        <v>1.040280219933272</v>
+        <v>1.066897936735087</v>
       </c>
       <c r="M7">
-        <v>1.047472126470721</v>
+        <v>1.075702003814111</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008702103256577</v>
+        <v>1.05729745348192</v>
       </c>
       <c r="D8">
-        <v>1.023633097772676</v>
+        <v>1.054687933129256</v>
       </c>
       <c r="E8">
-        <v>1.0213367603815</v>
+        <v>1.062587418960484</v>
       </c>
       <c r="F8">
-        <v>1.02811499656827</v>
+        <v>1.071299423544586</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044694185489087</v>
+        <v>1.041327750677337</v>
       </c>
       <c r="J8">
-        <v>1.030060852605909</v>
+        <v>1.062178905413878</v>
       </c>
       <c r="K8">
-        <v>1.034502183552173</v>
+        <v>1.057368230733854</v>
       </c>
       <c r="L8">
-        <v>1.032235264507695</v>
+        <v>1.065246651367257</v>
       </c>
       <c r="M8">
-        <v>1.038927137284159</v>
+        <v>1.073935813056144</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9884897305013505</v>
+        <v>1.053532394482879</v>
       </c>
       <c r="D9">
-        <v>1.008309898249798</v>
+        <v>1.051827871752655</v>
       </c>
       <c r="E9">
-        <v>1.003931934096343</v>
+        <v>1.059232594492014</v>
       </c>
       <c r="F9">
-        <v>1.009783222855636</v>
+        <v>1.067746147879225</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038689734472693</v>
+        <v>1.040434409813155</v>
       </c>
       <c r="J9">
-        <v>1.014455597628722</v>
+        <v>1.059224019044551</v>
       </c>
       <c r="K9">
-        <v>1.021269576689053</v>
+        <v>1.054939666980678</v>
       </c>
       <c r="L9">
-        <v>1.016961538906767</v>
+        <v>1.062321201661766</v>
       </c>
       <c r="M9">
-        <v>1.022719543459947</v>
+        <v>1.070808528432475</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9738432535395266</v>
+        <v>1.051011933803927</v>
       </c>
       <c r="D10">
-        <v>0.9972324241589078</v>
+        <v>1.04991093595815</v>
       </c>
       <c r="E10">
-        <v>0.9913681579487204</v>
+        <v>1.056987645181503</v>
       </c>
       <c r="F10">
-        <v>0.9965555827001494</v>
+        <v>1.065369228472954</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034273339122702</v>
+        <v>1.039827306375656</v>
       </c>
       <c r="J10">
-        <v>1.00313451379142</v>
+        <v>1.057242045399175</v>
       </c>
       <c r="K10">
-        <v>1.011651828483932</v>
+        <v>1.05330755772833</v>
       </c>
       <c r="L10">
-        <v>1.005895031767583</v>
+        <v>1.060359895997203</v>
       </c>
       <c r="M10">
-        <v>1.010987306903916</v>
+        <v>1.068713074750962</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9671685532126688</v>
+        <v>1.0499179329975</v>
       </c>
       <c r="D11">
-        <v>0.9921934524790813</v>
+        <v>1.049078360654492</v>
       </c>
       <c r="E11">
-        <v>0.9856565898746761</v>
+        <v>1.056013451549505</v>
       </c>
       <c r="F11">
-        <v>0.9905433994826082</v>
+        <v>1.064337962524582</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032246700933457</v>
+        <v>1.039561648224686</v>
       </c>
       <c r="J11">
-        <v>0.9979739455397718</v>
+        <v>1.056380862518025</v>
       </c>
       <c r="K11">
-        <v>1.007264105911205</v>
+        <v>1.052597648181521</v>
       </c>
       <c r="L11">
-        <v>1.000854167777314</v>
+        <v>1.059507913780696</v>
       </c>
       <c r="M11">
-        <v>1.005645884437478</v>
+        <v>1.06780309656176</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9646337462842515</v>
+        <v>1.049511165769608</v>
       </c>
       <c r="D12">
-        <v>0.9902815264897643</v>
+        <v>1.048768716818579</v>
       </c>
       <c r="E12">
-        <v>0.9834898997471205</v>
+        <v>1.055651264925381</v>
       </c>
       <c r="F12">
-        <v>0.9882628417610725</v>
+        <v>1.063954586920674</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031475106748215</v>
+        <v>1.039462550214835</v>
       </c>
       <c r="J12">
-        <v>0.9960141298075362</v>
+        <v>1.056060524425826</v>
       </c>
       <c r="K12">
-        <v>1.00559731604599</v>
+        <v>1.052333468324821</v>
       </c>
       <c r="L12">
-        <v>0.9989403933609815</v>
+        <v>1.059191031299628</v>
       </c>
       <c r="M12">
-        <v>1.003618415591443</v>
+        <v>1.067464685007012</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9651800822080774</v>
+        <v>1.049598437319534</v>
       </c>
       <c r="D13">
-        <v>0.9906935291668396</v>
+        <v>1.048835154177492</v>
       </c>
       <c r="E13">
-        <v>0.983956783562387</v>
+        <v>1.055728970175658</v>
       </c>
       <c r="F13">
-        <v>0.98875425443869</v>
+        <v>1.064036836825271</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031641496554156</v>
+        <v>1.039483826167673</v>
       </c>
       <c r="J13">
-        <v>0.9964365336727788</v>
+        <v>1.05612925884063</v>
       </c>
       <c r="K13">
-        <v>1.005956583668665</v>
+        <v>1.052390158002105</v>
       </c>
       <c r="L13">
-        <v>0.999352847035536</v>
+        <v>1.059259022745975</v>
       </c>
       <c r="M13">
-        <v>1.004055353698083</v>
+        <v>1.067537293922256</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9669601931625855</v>
+        <v>1.049884317857895</v>
       </c>
       <c r="D14">
-        <v>0.9920362568631519</v>
+        <v>1.049052773367731</v>
       </c>
       <c r="E14">
-        <v>0.985478439619107</v>
+        <v>1.055983519833203</v>
       </c>
       <c r="F14">
-        <v>0.9903558833423658</v>
+        <v>1.064306279115252</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032183314802098</v>
+        <v>1.039553465354696</v>
       </c>
       <c r="J14">
-        <v>0.9978128488371818</v>
+        <v>1.056354392637223</v>
       </c>
       <c r="K14">
-        <v>1.007127105148953</v>
+        <v>1.052575820989134</v>
       </c>
       <c r="L14">
-        <v>1.000696843688497</v>
+        <v>1.059481728763211</v>
       </c>
       <c r="M14">
-        <v>1.005479205531305</v>
+        <v>1.067775131677463</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9680494399398166</v>
+        <v>1.050060404042584</v>
       </c>
       <c r="D15">
-        <v>0.99285810111517</v>
+        <v>1.049186804031039</v>
       </c>
       <c r="E15">
-        <v>0.9864098553540379</v>
+        <v>1.056140312553986</v>
       </c>
       <c r="F15">
-        <v>0.991336273259709</v>
+        <v>1.064472249016425</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032514601139102</v>
+        <v>1.039596316503418</v>
       </c>
       <c r="J15">
-        <v>0.9986550166170719</v>
+        <v>1.056493044235096</v>
       </c>
       <c r="K15">
-        <v>1.007843287296839</v>
+        <v>1.052690149205888</v>
       </c>
       <c r="L15">
-        <v>1.001519313118228</v>
+        <v>1.059618889581002</v>
       </c>
       <c r="M15">
-        <v>1.006350597537275</v>
+        <v>1.067921617395446</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9742787681630035</v>
+        <v>1.051084482688779</v>
       </c>
       <c r="D16">
-        <v>0.9975614251186534</v>
+        <v>1.049966137241743</v>
       </c>
       <c r="E16">
-        <v>0.9917411387046627</v>
+        <v>1.05705225378782</v>
       </c>
       <c r="F16">
-        <v>0.9969482183112488</v>
+        <v>1.065437626243749</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034405297853669</v>
+        <v>1.039844878412156</v>
       </c>
       <c r="J16">
-        <v>1.003471220575669</v>
+        <v>1.057299135783165</v>
       </c>
       <c r="K16">
-        <v>1.011938041148495</v>
+        <v>1.053354604101428</v>
       </c>
       <c r="L16">
-        <v>1.006224006366713</v>
+        <v>1.060416381085135</v>
       </c>
       <c r="M16">
-        <v>1.011335952617714</v>
+        <v>1.068773410718817</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.978093538290124</v>
+        <v>1.05172614882067</v>
       </c>
       <c r="D17">
-        <v>1.000444290865276</v>
+        <v>1.05045430935014</v>
       </c>
       <c r="E17">
-        <v>0.9950097609772851</v>
+        <v>1.057623717044401</v>
       </c>
       <c r="F17">
-        <v>1.000389218445742</v>
+        <v>1.066042627279511</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035559596955651</v>
+        <v>1.040000048546624</v>
       </c>
       <c r="J17">
-        <v>1.006420381243633</v>
+        <v>1.057803972532112</v>
       </c>
       <c r="K17">
-        <v>1.014444534535356</v>
+        <v>1.053770538129589</v>
       </c>
       <c r="L17">
-        <v>1.009105856588403</v>
+        <v>1.060915890757344</v>
       </c>
       <c r="M17">
-        <v>1.014390426692806</v>
+        <v>1.069307006528785</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9802869468890181</v>
+        <v>1.052100169409516</v>
       </c>
       <c r="D18">
-        <v>1.002102720186483</v>
+        <v>1.050738808389614</v>
       </c>
       <c r="E18">
-        <v>0.9968904387967381</v>
+        <v>1.057956838424082</v>
       </c>
       <c r="F18">
-        <v>1.002369188998745</v>
+        <v>1.066395317623894</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036221973472665</v>
+        <v>1.040090288816417</v>
       </c>
       <c r="J18">
-        <v>1.008115947671383</v>
+        <v>1.058098148843667</v>
       </c>
       <c r="K18">
-        <v>1.015885256383993</v>
+        <v>1.054012837622917</v>
       </c>
       <c r="L18">
-        <v>1.010763064062551</v>
+        <v>1.061206984099436</v>
       </c>
       <c r="M18">
-        <v>1.016147152085867</v>
+        <v>1.069617990550155</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9810296235061685</v>
+        <v>1.052227658321593</v>
       </c>
       <c r="D19">
-        <v>1.002664390802017</v>
+        <v>1.050835774158416</v>
       </c>
       <c r="E19">
-        <v>0.9975274387741426</v>
+        <v>1.058070389990805</v>
       </c>
       <c r="F19">
-        <v>1.003039839214646</v>
+        <v>1.066515542896171</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036446022605072</v>
+        <v>1.040121013085403</v>
       </c>
       <c r="J19">
-        <v>1.008690029669914</v>
+        <v>1.058198407065318</v>
       </c>
       <c r="K19">
-        <v>1.016372993902438</v>
+        <v>1.054095403515766</v>
       </c>
       <c r="L19">
-        <v>1.011324215358218</v>
+        <v>1.061306195207369</v>
       </c>
       <c r="M19">
-        <v>1.016742043648853</v>
+        <v>1.069723985374168</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9776875639690196</v>
+        <v>1.051657330314201</v>
       </c>
       <c r="D20">
-        <v>1.000137401503456</v>
+        <v>1.050401958348365</v>
       </c>
       <c r="E20">
-        <v>0.9946617725877417</v>
+        <v>1.057562425562437</v>
       </c>
       <c r="F20">
-        <v>1.000022866625106</v>
+        <v>1.065977736796727</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035436890760284</v>
+        <v>1.039983427988203</v>
       </c>
       <c r="J20">
-        <v>1.006106539508772</v>
+        <v>1.057749838021015</v>
       </c>
       <c r="K20">
-        <v>1.014177835301706</v>
+        <v>1.053725944236868</v>
       </c>
       <c r="L20">
-        <v>1.008799142280949</v>
+        <v>1.060862325283221</v>
       </c>
       <c r="M20">
-        <v>1.014065313962817</v>
+        <v>1.069249783026548</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9664375765397509</v>
+        <v>1.049800144488591</v>
       </c>
       <c r="D21">
-        <v>0.9916420010816888</v>
+        <v>1.048988700725993</v>
       </c>
       <c r="E21">
-        <v>0.985031635092637</v>
+        <v>1.055908570430238</v>
       </c>
       <c r="F21">
-        <v>0.9898855917106041</v>
+        <v>1.064226943925455</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032024296493235</v>
+        <v>1.039532969991311</v>
       </c>
       <c r="J21">
-        <v>0.9974087802570926</v>
+        <v>1.05628810902122</v>
       </c>
       <c r="K21">
-        <v>1.006783467469342</v>
+        <v>1.052521161396493</v>
       </c>
       <c r="L21">
-        <v>1.000302247174283</v>
+        <v>1.05941615901408</v>
       </c>
       <c r="M21">
-        <v>1.005061152163217</v>
+        <v>1.067705105647619</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9590395855534135</v>
+        <v>1.04863009931779</v>
       </c>
       <c r="D22">
-        <v>0.9860655190324343</v>
+        <v>1.04809787883951</v>
       </c>
       <c r="E22">
-        <v>0.9787128102760209</v>
+        <v>1.054866824953455</v>
       </c>
       <c r="F22">
-        <v>0.9832350070206594</v>
+        <v>1.06312430870275</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029768827048968</v>
+        <v>1.039247313202295</v>
       </c>
       <c r="J22">
-        <v>0.9916891196970644</v>
+        <v>1.055366416507999</v>
       </c>
       <c r="K22">
-        <v>1.001918168728035</v>
+        <v>1.051760840205649</v>
       </c>
       <c r="L22">
-        <v>0.9947181036090392</v>
+        <v>1.058504471856485</v>
       </c>
       <c r="M22">
-        <v>0.999146061773502</v>
+        <v>1.06673155686041</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9629942659209603</v>
+        <v>1.049250590110704</v>
       </c>
       <c r="D23">
-        <v>0.9890454353531196</v>
+        <v>1.048570336502217</v>
       </c>
       <c r="E23">
-        <v>0.9820892108974242</v>
+        <v>1.055419257460373</v>
       </c>
       <c r="F23">
-        <v>0.986788588923688</v>
+        <v>1.063709014617792</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030975520129018</v>
+        <v>1.039398977291677</v>
       </c>
       <c r="J23">
-        <v>0.9947465648431719</v>
+        <v>1.055855277080088</v>
       </c>
       <c r="K23">
-        <v>1.004519148319626</v>
+        <v>1.052164171373782</v>
       </c>
       <c r="L23">
-        <v>0.9977027752778782</v>
+        <v>1.058988007396318</v>
       </c>
       <c r="M23">
-        <v>1.0023073903767</v>
+        <v>1.067247879350656</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.97787110378824</v>
+        <v>1.051688427215025</v>
       </c>
       <c r="D24">
-        <v>1.000276142692593</v>
+        <v>1.05042561426518</v>
       </c>
       <c r="E24">
-        <v>0.9948190931354108</v>
+        <v>1.05759012117373</v>
       </c>
       <c r="F24">
-        <v>1.000188488670105</v>
+        <v>1.066007058620117</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035492369991893</v>
+        <v>1.039990938930814</v>
       </c>
       <c r="J24">
-        <v>1.006248426886718</v>
+        <v>1.057774299961526</v>
       </c>
       <c r="K24">
-        <v>1.014298410690567</v>
+        <v>1.053746095248629</v>
       </c>
       <c r="L24">
-        <v>1.008937806304958</v>
+        <v>1.060886530025574</v>
       </c>
       <c r="M24">
-        <v>1.014212295044445</v>
+        <v>1.069275640647131</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9939051146941816</v>
+        <v>1.054507542535223</v>
       </c>
       <c r="D25">
-        <v>1.012411810619031</v>
+        <v>1.052569037721632</v>
       </c>
       <c r="E25">
-        <v>1.00858767112627</v>
+        <v>1.060101340116733</v>
       </c>
       <c r="F25">
-        <v>1.014686003066325</v>
+        <v>1.068666137540187</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04030999380614</v>
+        <v>1.040667381931663</v>
       </c>
       <c r="J25">
-        <v>1.01863935153463</v>
+        <v>1.059990016044026</v>
       </c>
       <c r="K25">
-        <v>1.024820456918564</v>
+        <v>1.055569782746297</v>
       </c>
       <c r="L25">
-        <v>1.02105412139594</v>
+        <v>1.063079405866313</v>
       </c>
       <c r="M25">
-        <v>1.027060536561206</v>
+        <v>1.07161883803041</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.056748553031213</v>
+        <v>1.005868436103728</v>
       </c>
       <c r="D2">
-        <v>1.054271244083026</v>
+        <v>1.021482909778848</v>
       </c>
       <c r="E2">
-        <v>1.062098227298203</v>
+        <v>1.018892171457461</v>
       </c>
       <c r="F2">
-        <v>1.07078119812752</v>
+        <v>1.025539616726787</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041198566114515</v>
+        <v>1.043859990703646</v>
       </c>
       <c r="J2">
-        <v>1.061748569773783</v>
+        <v>1.027875028893312</v>
       </c>
       <c r="K2">
-        <v>1.057014914388477</v>
+        <v>1.032650851726725</v>
       </c>
       <c r="L2">
-        <v>1.064820496232767</v>
+        <v>1.030094436051906</v>
       </c>
       <c r="M2">
-        <v>1.073480121093358</v>
+        <v>1.036654251060444</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.058371590284792</v>
+        <v>1.014143372030929</v>
       </c>
       <c r="D3">
-        <v>1.055503062703237</v>
+        <v>1.027763268246126</v>
       </c>
       <c r="E3">
-        <v>1.063544809407953</v>
+        <v>1.026034966323857</v>
       </c>
       <c r="F3">
-        <v>1.072313733926125</v>
+        <v>1.033065188697834</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041579471626975</v>
+        <v>1.046287981890603</v>
       </c>
       <c r="J3">
-        <v>1.063020560694668</v>
+        <v>1.034255761991826</v>
       </c>
       <c r="K3">
-        <v>1.058058873017664</v>
+        <v>1.038052821499722</v>
       </c>
       <c r="L3">
-        <v>1.066080238859819</v>
+        <v>1.036345219125848</v>
       </c>
       <c r="M3">
-        <v>1.074827314628469</v>
+        <v>1.043291777059268</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.059419962158906</v>
+        <v>1.019326212007096</v>
       </c>
       <c r="D4">
-        <v>1.056298266789983</v>
+        <v>1.03169859147528</v>
       </c>
       <c r="E4">
-        <v>1.064479359051927</v>
+        <v>1.030514944833463</v>
       </c>
       <c r="F4">
-        <v>1.073303973633464</v>
+        <v>1.037786264937222</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041823749525427</v>
+        <v>1.04779545185535</v>
       </c>
       <c r="J4">
-        <v>1.063841422877484</v>
+        <v>1.038248146067284</v>
       </c>
       <c r="K4">
-        <v>1.058731960273041</v>
+        <v>1.041428922247097</v>
       </c>
       <c r="L4">
-        <v>1.066893373492229</v>
+        <v>1.040258519193358</v>
       </c>
       <c r="M4">
-        <v>1.075697122019768</v>
+        <v>1.047449068477463</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059860266817201</v>
+        <v>1.021466501191021</v>
       </c>
       <c r="D5">
-        <v>1.056632130791778</v>
+        <v>1.033323993394546</v>
       </c>
       <c r="E5">
-        <v>1.064871896053509</v>
+        <v>1.032366368542112</v>
       </c>
       <c r="F5">
-        <v>1.073719940487428</v>
+        <v>1.039737574552781</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041925921480718</v>
+        <v>1.048414716503023</v>
       </c>
       <c r="J5">
-        <v>1.064185994068419</v>
+        <v>1.039895774106377</v>
       </c>
       <c r="K5">
-        <v>1.059014352150664</v>
+        <v>1.042821251350177</v>
       </c>
       <c r="L5">
-        <v>1.067234743140965</v>
+        <v>1.041874031318006</v>
       </c>
       <c r="M5">
-        <v>1.076062337903095</v>
+        <v>1.049165752605812</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.059934170930517</v>
+        <v>1.021823671528142</v>
       </c>
       <c r="D6">
-        <v>1.056688162429831</v>
+        <v>1.033595252518267</v>
       </c>
       <c r="E6">
-        <v>1.064937784587706</v>
+        <v>1.032675411667416</v>
       </c>
       <c r="F6">
-        <v>1.073789764050708</v>
+        <v>1.040063305539374</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041943046039831</v>
+        <v>1.048517865471505</v>
       </c>
       <c r="J6">
-        <v>1.064243818858655</v>
+        <v>1.040170665179189</v>
       </c>
       <c r="K6">
-        <v>1.059061733510471</v>
+        <v>1.043053490632061</v>
       </c>
       <c r="L6">
-        <v>1.067292033133768</v>
+        <v>1.042143594497473</v>
       </c>
       <c r="M6">
-        <v>1.076123633026365</v>
+        <v>1.049452223433414</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.059425847210402</v>
+        <v>1.019354959097341</v>
       </c>
       <c r="D7">
-        <v>1.056302729615854</v>
+        <v>1.031720421956574</v>
       </c>
       <c r="E7">
-        <v>1.064484605505458</v>
+        <v>1.030539806704429</v>
       </c>
       <c r="F7">
-        <v>1.073309533087467</v>
+        <v>1.037812467139346</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041825116801328</v>
+        <v>1.047803782436836</v>
       </c>
       <c r="J7">
-        <v>1.063846029084298</v>
+        <v>1.03827028030261</v>
       </c>
       <c r="K7">
-        <v>1.058735735853815</v>
+        <v>1.041447630654271</v>
       </c>
       <c r="L7">
-        <v>1.066897936735087</v>
+        <v>1.040280219933272</v>
       </c>
       <c r="M7">
-        <v>1.075702003814111</v>
+        <v>1.047472126470721</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.05729745348192</v>
+        <v>1.008702103256576</v>
       </c>
       <c r="D8">
-        <v>1.054687933129256</v>
+        <v>1.023633097772676</v>
       </c>
       <c r="E8">
-        <v>1.062587418960484</v>
+        <v>1.021336760381499</v>
       </c>
       <c r="F8">
-        <v>1.071299423544586</v>
+        <v>1.028114996568269</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041327750677337</v>
+        <v>1.044694185489086</v>
       </c>
       <c r="J8">
-        <v>1.062178905413878</v>
+        <v>1.030060852605908</v>
       </c>
       <c r="K8">
-        <v>1.057368230733854</v>
+        <v>1.034502183552172</v>
       </c>
       <c r="L8">
-        <v>1.065246651367257</v>
+        <v>1.032235264507694</v>
       </c>
       <c r="M8">
-        <v>1.073935813056144</v>
+        <v>1.038927137284158</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.053532394482879</v>
+        <v>0.9884897305013512</v>
       </c>
       <c r="D9">
-        <v>1.051827871752655</v>
+        <v>1.008309898249799</v>
       </c>
       <c r="E9">
-        <v>1.059232594492014</v>
+        <v>1.003931934096343</v>
       </c>
       <c r="F9">
-        <v>1.067746147879225</v>
+        <v>1.009783222855637</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040434409813155</v>
+        <v>1.038689734472694</v>
       </c>
       <c r="J9">
-        <v>1.059224019044551</v>
+        <v>1.014455597628722</v>
       </c>
       <c r="K9">
-        <v>1.054939666980678</v>
+        <v>1.021269576689054</v>
       </c>
       <c r="L9">
-        <v>1.062321201661766</v>
+        <v>1.016961538906768</v>
       </c>
       <c r="M9">
-        <v>1.070808528432475</v>
+        <v>1.022719543459948</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.051011933803927</v>
+        <v>0.9738432535395274</v>
       </c>
       <c r="D10">
-        <v>1.04991093595815</v>
+        <v>0.9972324241589086</v>
       </c>
       <c r="E10">
-        <v>1.056987645181503</v>
+        <v>0.9913681579487214</v>
       </c>
       <c r="F10">
-        <v>1.065369228472954</v>
+        <v>0.9965555827001504</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039827306375656</v>
+        <v>1.034273339122702</v>
       </c>
       <c r="J10">
-        <v>1.057242045399175</v>
+        <v>1.00313451379142</v>
       </c>
       <c r="K10">
-        <v>1.05330755772833</v>
+        <v>1.011651828483933</v>
       </c>
       <c r="L10">
-        <v>1.060359895997203</v>
+        <v>1.005895031767584</v>
       </c>
       <c r="M10">
-        <v>1.068713074750962</v>
+        <v>1.010987306903917</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.0499179329975</v>
+        <v>0.9671685532126671</v>
       </c>
       <c r="D11">
-        <v>1.049078360654492</v>
+        <v>0.99219345247908</v>
       </c>
       <c r="E11">
-        <v>1.056013451549505</v>
+        <v>0.9856565898746746</v>
       </c>
       <c r="F11">
-        <v>1.064337962524582</v>
+        <v>0.9905433994826068</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039561648224686</v>
+        <v>1.032246700933456</v>
       </c>
       <c r="J11">
-        <v>1.056380862518025</v>
+        <v>0.9979739455397703</v>
       </c>
       <c r="K11">
-        <v>1.052597648181521</v>
+        <v>1.007264105911204</v>
       </c>
       <c r="L11">
-        <v>1.059507913780696</v>
+        <v>1.000854167777313</v>
       </c>
       <c r="M11">
-        <v>1.06780309656176</v>
+        <v>1.005645884437477</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049511165769608</v>
+        <v>0.9646337462842504</v>
       </c>
       <c r="D12">
-        <v>1.048768716818579</v>
+        <v>0.9902815264897638</v>
       </c>
       <c r="E12">
-        <v>1.055651264925381</v>
+        <v>0.9834898997471193</v>
       </c>
       <c r="F12">
-        <v>1.063954586920674</v>
+        <v>0.9882628417610714</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039462550214835</v>
+        <v>1.031475106748215</v>
       </c>
       <c r="J12">
-        <v>1.056060524425826</v>
+        <v>0.9960141298075353</v>
       </c>
       <c r="K12">
-        <v>1.052333468324821</v>
+        <v>1.005597316045989</v>
       </c>
       <c r="L12">
-        <v>1.059191031299628</v>
+        <v>0.9989403933609805</v>
       </c>
       <c r="M12">
-        <v>1.067464685007012</v>
+        <v>1.003618415591442</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.049598437319534</v>
+        <v>0.9651800822080774</v>
       </c>
       <c r="D13">
-        <v>1.048835154177492</v>
+        <v>0.9906935291668398</v>
       </c>
       <c r="E13">
-        <v>1.055728970175658</v>
+        <v>0.983956783562387</v>
       </c>
       <c r="F13">
-        <v>1.064036836825271</v>
+        <v>0.9887542544386902</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039483826167673</v>
+        <v>1.031641496554156</v>
       </c>
       <c r="J13">
-        <v>1.05612925884063</v>
+        <v>0.996436533672779</v>
       </c>
       <c r="K13">
-        <v>1.052390158002105</v>
+        <v>1.005956583668665</v>
       </c>
       <c r="L13">
-        <v>1.059259022745975</v>
+        <v>0.9993528470355361</v>
       </c>
       <c r="M13">
-        <v>1.067537293922256</v>
+        <v>1.004055353698083</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049884317857895</v>
+        <v>0.966960193162585</v>
       </c>
       <c r="D14">
-        <v>1.049052773367731</v>
+        <v>0.9920362568631517</v>
       </c>
       <c r="E14">
-        <v>1.055983519833203</v>
+        <v>0.9854784396191065</v>
       </c>
       <c r="F14">
-        <v>1.064306279115252</v>
+        <v>0.9903558833423654</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039553465354696</v>
+        <v>1.032183314802098</v>
       </c>
       <c r="J14">
-        <v>1.056354392637223</v>
+        <v>0.9978128488371814</v>
       </c>
       <c r="K14">
-        <v>1.052575820989134</v>
+        <v>1.007127105148953</v>
       </c>
       <c r="L14">
-        <v>1.059481728763211</v>
+        <v>1.000696843688497</v>
       </c>
       <c r="M14">
-        <v>1.067775131677463</v>
+        <v>1.005479205531305</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050060404042584</v>
+        <v>0.9680494399398184</v>
       </c>
       <c r="D15">
-        <v>1.049186804031039</v>
+        <v>0.9928581011151713</v>
       </c>
       <c r="E15">
-        <v>1.056140312553986</v>
+        <v>0.9864098553540394</v>
       </c>
       <c r="F15">
-        <v>1.064472249016425</v>
+        <v>0.9913362732597105</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039596316503418</v>
+        <v>1.032514601139102</v>
       </c>
       <c r="J15">
-        <v>1.056493044235096</v>
+        <v>0.9986550166170736</v>
       </c>
       <c r="K15">
-        <v>1.052690149205888</v>
+        <v>1.00784328729684</v>
       </c>
       <c r="L15">
-        <v>1.059618889581002</v>
+        <v>1.00151931311823</v>
       </c>
       <c r="M15">
-        <v>1.067921617395446</v>
+        <v>1.006350597537277</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.051084482688779</v>
+        <v>0.9742787681630029</v>
       </c>
       <c r="D16">
-        <v>1.049966137241743</v>
+        <v>0.9975614251186532</v>
       </c>
       <c r="E16">
-        <v>1.05705225378782</v>
+        <v>0.9917411387046624</v>
       </c>
       <c r="F16">
-        <v>1.065437626243749</v>
+        <v>0.9969482183112486</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039844878412156</v>
+        <v>1.034405297853669</v>
       </c>
       <c r="J16">
-        <v>1.057299135783165</v>
+        <v>1.003471220575668</v>
       </c>
       <c r="K16">
-        <v>1.053354604101428</v>
+        <v>1.011938041148494</v>
       </c>
       <c r="L16">
-        <v>1.060416381085135</v>
+        <v>1.006224006366713</v>
       </c>
       <c r="M16">
-        <v>1.068773410718817</v>
+        <v>1.011335952617714</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.05172614882067</v>
+        <v>0.9780935382901234</v>
       </c>
       <c r="D17">
-        <v>1.05045430935014</v>
+        <v>1.000444290865276</v>
       </c>
       <c r="E17">
-        <v>1.057623717044401</v>
+        <v>0.995009760977284</v>
       </c>
       <c r="F17">
-        <v>1.066042627279511</v>
+        <v>1.000389218445741</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040000048546624</v>
+        <v>1.035559596955651</v>
       </c>
       <c r="J17">
-        <v>1.057803972532112</v>
+        <v>1.006420381243633</v>
       </c>
       <c r="K17">
-        <v>1.053770538129589</v>
+        <v>1.014444534535356</v>
       </c>
       <c r="L17">
-        <v>1.060915890757344</v>
+        <v>1.009105856588401</v>
       </c>
       <c r="M17">
-        <v>1.069307006528785</v>
+        <v>1.014390426692804</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.052100169409516</v>
+        <v>0.9802869468890174</v>
       </c>
       <c r="D18">
-        <v>1.050738808389614</v>
+        <v>1.002102720186482</v>
       </c>
       <c r="E18">
-        <v>1.057956838424082</v>
+        <v>0.9968904387967371</v>
       </c>
       <c r="F18">
-        <v>1.066395317623894</v>
+        <v>1.002369188998744</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040090288816417</v>
+        <v>1.036221973472665</v>
       </c>
       <c r="J18">
-        <v>1.058098148843667</v>
+        <v>1.008115947671383</v>
       </c>
       <c r="K18">
-        <v>1.054012837622917</v>
+        <v>1.015885256383993</v>
       </c>
       <c r="L18">
-        <v>1.061206984099436</v>
+        <v>1.01076306406255</v>
       </c>
       <c r="M18">
-        <v>1.069617990550155</v>
+        <v>1.016147152085866</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.052227658321593</v>
+        <v>0.9810296235061701</v>
       </c>
       <c r="D19">
-        <v>1.050835774158416</v>
+        <v>1.002664390802019</v>
       </c>
       <c r="E19">
-        <v>1.058070389990805</v>
+        <v>0.9975274387741437</v>
       </c>
       <c r="F19">
-        <v>1.066515542896171</v>
+        <v>1.003039839214647</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040121013085403</v>
+        <v>1.036446022605073</v>
       </c>
       <c r="J19">
-        <v>1.058198407065318</v>
+        <v>1.008690029669916</v>
       </c>
       <c r="K19">
-        <v>1.054095403515766</v>
+        <v>1.01637299390244</v>
       </c>
       <c r="L19">
-        <v>1.061306195207369</v>
+        <v>1.011324215358219</v>
       </c>
       <c r="M19">
-        <v>1.069723985374168</v>
+        <v>1.016742043648854</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.051657330314201</v>
+        <v>0.97768756396902</v>
       </c>
       <c r="D20">
-        <v>1.050401958348365</v>
+        <v>1.000137401503456</v>
       </c>
       <c r="E20">
-        <v>1.057562425562437</v>
+        <v>0.9946617725877421</v>
       </c>
       <c r="F20">
-        <v>1.065977736796727</v>
+        <v>1.000022866625106</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039983427988203</v>
+        <v>1.035436890760284</v>
       </c>
       <c r="J20">
-        <v>1.057749838021015</v>
+        <v>1.006106539508772</v>
       </c>
       <c r="K20">
-        <v>1.053725944236868</v>
+        <v>1.014177835301706</v>
       </c>
       <c r="L20">
-        <v>1.060862325283221</v>
+        <v>1.008799142280949</v>
       </c>
       <c r="M20">
-        <v>1.069249783026548</v>
+        <v>1.014065313962817</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.049800144488591</v>
+        <v>0.966437576539751</v>
       </c>
       <c r="D21">
-        <v>1.048988700725993</v>
+        <v>0.9916420010816892</v>
       </c>
       <c r="E21">
-        <v>1.055908570430238</v>
+        <v>0.9850316350926372</v>
       </c>
       <c r="F21">
-        <v>1.064226943925455</v>
+        <v>0.9898855917106042</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039532969991311</v>
+        <v>1.032024296493236</v>
       </c>
       <c r="J21">
-        <v>1.05628810902122</v>
+        <v>0.997408780257093</v>
       </c>
       <c r="K21">
-        <v>1.052521161396493</v>
+        <v>1.006783467469342</v>
       </c>
       <c r="L21">
-        <v>1.05941615901408</v>
+        <v>1.000302247174284</v>
       </c>
       <c r="M21">
-        <v>1.067705105647619</v>
+        <v>1.005061152163217</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04863009931779</v>
+        <v>0.9590395855534118</v>
       </c>
       <c r="D22">
-        <v>1.04809787883951</v>
+        <v>0.9860655190324329</v>
       </c>
       <c r="E22">
-        <v>1.054866824953455</v>
+        <v>0.9787128102760193</v>
       </c>
       <c r="F22">
-        <v>1.06312430870275</v>
+        <v>0.9832350070206574</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039247313202295</v>
+        <v>1.029768827048967</v>
       </c>
       <c r="J22">
-        <v>1.055366416507999</v>
+        <v>0.9916891196970626</v>
       </c>
       <c r="K22">
-        <v>1.051760840205649</v>
+        <v>1.001918168728033</v>
       </c>
       <c r="L22">
-        <v>1.058504471856485</v>
+        <v>0.9947181036090377</v>
       </c>
       <c r="M22">
-        <v>1.06673155686041</v>
+        <v>0.9991460617735004</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049250590110704</v>
+        <v>0.9629942659209573</v>
       </c>
       <c r="D23">
-        <v>1.048570336502217</v>
+        <v>0.9890454353531172</v>
       </c>
       <c r="E23">
-        <v>1.055419257460373</v>
+        <v>0.9820892108974222</v>
       </c>
       <c r="F23">
-        <v>1.063709014617792</v>
+        <v>0.986788588923686</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039398977291677</v>
+        <v>1.030975520129016</v>
       </c>
       <c r="J23">
-        <v>1.055855277080088</v>
+        <v>0.9947465648431693</v>
       </c>
       <c r="K23">
-        <v>1.052164171373782</v>
+        <v>1.004519148319624</v>
       </c>
       <c r="L23">
-        <v>1.058988007396318</v>
+        <v>0.9977027752778761</v>
       </c>
       <c r="M23">
-        <v>1.067247879350656</v>
+        <v>1.002307390376699</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.051688427215025</v>
+        <v>0.9778711037882396</v>
       </c>
       <c r="D24">
-        <v>1.05042561426518</v>
+        <v>1.000276142692593</v>
       </c>
       <c r="E24">
-        <v>1.05759012117373</v>
+        <v>0.9948190931354107</v>
       </c>
       <c r="F24">
-        <v>1.066007058620117</v>
+        <v>1.000188488670105</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039990938930814</v>
+        <v>1.035492369991893</v>
       </c>
       <c r="J24">
-        <v>1.057774299961526</v>
+        <v>1.006248426886717</v>
       </c>
       <c r="K24">
-        <v>1.053746095248629</v>
+        <v>1.014298410690567</v>
       </c>
       <c r="L24">
-        <v>1.060886530025574</v>
+        <v>1.008937806304958</v>
       </c>
       <c r="M24">
-        <v>1.069275640647131</v>
+        <v>1.014212295044445</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.054507542535223</v>
+        <v>0.9939051146941804</v>
       </c>
       <c r="D25">
-        <v>1.052569037721632</v>
+        <v>1.01241181061903</v>
       </c>
       <c r="E25">
-        <v>1.060101340116733</v>
+        <v>1.00858767112627</v>
       </c>
       <c r="F25">
-        <v>1.068666137540187</v>
+        <v>1.014686003066324</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040667381931663</v>
+        <v>1.040309993806139</v>
       </c>
       <c r="J25">
-        <v>1.059990016044026</v>
+        <v>1.018639351534629</v>
       </c>
       <c r="K25">
-        <v>1.055569782746297</v>
+        <v>1.024820456918563</v>
       </c>
       <c r="L25">
-        <v>1.063079405866313</v>
+        <v>1.02105412139594</v>
       </c>
       <c r="M25">
-        <v>1.07161883803041</v>
+        <v>1.027060536561206</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005868436103728</v>
+        <v>1.023098806818285</v>
       </c>
       <c r="D2">
-        <v>1.021482909778848</v>
+        <v>1.040529952394177</v>
       </c>
       <c r="E2">
-        <v>1.018892171457461</v>
+        <v>1.036223195549819</v>
       </c>
       <c r="F2">
-        <v>1.025539616726787</v>
+        <v>1.046606900038155</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043859990703646</v>
+        <v>1.054115530449006</v>
       </c>
       <c r="J2">
-        <v>1.027875028893312</v>
+        <v>1.044609922834639</v>
       </c>
       <c r="K2">
-        <v>1.032650851726725</v>
+        <v>1.051452105095986</v>
       </c>
       <c r="L2">
-        <v>1.030094436051906</v>
+        <v>1.047199936396352</v>
       </c>
       <c r="M2">
-        <v>1.036654251060444</v>
+        <v>1.05745297950407</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.054042445329452</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.047451323574379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014143372030929</v>
+        <v>1.026443386241077</v>
       </c>
       <c r="D3">
-        <v>1.027763268246126</v>
+        <v>1.042752931184728</v>
       </c>
       <c r="E3">
-        <v>1.026034966323857</v>
+        <v>1.038778393002348</v>
       </c>
       <c r="F3">
-        <v>1.033065188697834</v>
+        <v>1.049020558603402</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046287981890603</v>
+        <v>1.054873625075237</v>
       </c>
       <c r="J3">
-        <v>1.034255761991826</v>
+        <v>1.04623824639519</v>
       </c>
       <c r="K3">
-        <v>1.038052821499722</v>
+        <v>1.052866512635925</v>
       </c>
       <c r="L3">
-        <v>1.036345219125848</v>
+        <v>1.048938021901898</v>
       </c>
       <c r="M3">
-        <v>1.043291777059268</v>
+        <v>1.059062400191058</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.055316169471568</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.048448774693772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019326212007096</v>
+        <v>1.028574560442581</v>
       </c>
       <c r="D4">
-        <v>1.03169859147528</v>
+        <v>1.044173665129082</v>
       </c>
       <c r="E4">
-        <v>1.030514944833463</v>
+        <v>1.040412209344845</v>
       </c>
       <c r="F4">
-        <v>1.037786264937222</v>
+        <v>1.050564493291402</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04779545185535</v>
+        <v>1.055350050093956</v>
       </c>
       <c r="J4">
-        <v>1.038248146067284</v>
+        <v>1.047274531343859</v>
       </c>
       <c r="K4">
-        <v>1.041428922247097</v>
+        <v>1.053766655426549</v>
       </c>
       <c r="L4">
-        <v>1.040258519193358</v>
+        <v>1.050046184327227</v>
       </c>
       <c r="M4">
-        <v>1.047449068477463</v>
+        <v>1.060088673672354</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.056128379433979</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049086122030414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021466501191021</v>
+        <v>1.029465766607691</v>
       </c>
       <c r="D5">
-        <v>1.033323993394546</v>
+        <v>1.044770641286349</v>
       </c>
       <c r="E5">
-        <v>1.032366368542112</v>
+        <v>1.041097222006323</v>
       </c>
       <c r="F5">
-        <v>1.039737574552781</v>
+        <v>1.05121211797637</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048414716503023</v>
+        <v>1.055549075876996</v>
       </c>
       <c r="J5">
-        <v>1.039895774106377</v>
+        <v>1.047709001337669</v>
       </c>
       <c r="K5">
-        <v>1.042821251350177</v>
+        <v>1.054145335420618</v>
       </c>
       <c r="L5">
-        <v>1.041874031318006</v>
+        <v>1.050510889345458</v>
       </c>
       <c r="M5">
-        <v>1.049165752605812</v>
+        <v>1.060519274315571</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.056469163712335</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049360955202403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,81 +645,105 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021823671528142</v>
+        <v>1.029618555575786</v>
       </c>
       <c r="D6">
-        <v>1.033595252518267</v>
+        <v>1.044875311528557</v>
       </c>
       <c r="E6">
-        <v>1.032675411667416</v>
+        <v>1.041215298452065</v>
       </c>
       <c r="F6">
-        <v>1.040063305539374</v>
+        <v>1.051323941932824</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048517865471505</v>
+        <v>1.055584823027495</v>
       </c>
       <c r="J6">
-        <v>1.040170665179189</v>
+        <v>1.047785229335733</v>
       </c>
       <c r="K6">
-        <v>1.043053490632061</v>
+        <v>1.054213338384496</v>
       </c>
       <c r="L6">
-        <v>1.042143594497473</v>
+        <v>1.050591980643394</v>
       </c>
       <c r="M6">
-        <v>1.049452223433414</v>
+        <v>1.060594660828243</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.056528825795949</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04941767339634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019354959097341</v>
+        <v>1.028596177533819</v>
       </c>
       <c r="D7">
-        <v>1.031720421956574</v>
+        <v>1.04419420720732</v>
       </c>
       <c r="E7">
-        <v>1.030539806704429</v>
+        <v>1.040430328098003</v>
       </c>
       <c r="F7">
-        <v>1.037812467139346</v>
+        <v>1.050582104493357</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047803782436836</v>
+        <v>1.055359507775515</v>
       </c>
       <c r="J7">
-        <v>1.03827028030261</v>
+        <v>1.047289801998364</v>
       </c>
       <c r="K7">
-        <v>1.041447630654271</v>
+        <v>1.053784142195651</v>
       </c>
       <c r="L7">
-        <v>1.040280219933272</v>
+        <v>1.050061258679765</v>
       </c>
       <c r="M7">
-        <v>1.047472126470721</v>
+        <v>1.06010328702054</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.056139944675389</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.049118348497202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,81 +751,105 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008702103256576</v>
+        <v>1.024248202088949</v>
       </c>
       <c r="D8">
-        <v>1.023633097772676</v>
+        <v>1.041300511115911</v>
       </c>
       <c r="E8">
-        <v>1.021336760381499</v>
+        <v>1.037102063624215</v>
       </c>
       <c r="F8">
-        <v>1.028114996568269</v>
+        <v>1.047437512419866</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044694185489086</v>
+        <v>1.054383144174931</v>
       </c>
       <c r="J8">
-        <v>1.030060852605908</v>
+        <v>1.045175658400762</v>
       </c>
       <c r="K8">
-        <v>1.034502183552172</v>
+        <v>1.051948658230284</v>
       </c>
       <c r="L8">
-        <v>1.032235264507694</v>
+        <v>1.047801865184941</v>
       </c>
       <c r="M8">
-        <v>1.038927137284158</v>
+        <v>1.058011079729146</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.05448413601109</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.047825050002807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9884897305013512</v>
+        <v>1.016308665229093</v>
       </c>
       <c r="D9">
-        <v>1.008309898249799</v>
+        <v>1.036041751464388</v>
       </c>
       <c r="E9">
-        <v>1.003931934096343</v>
+        <v>1.03106782441368</v>
       </c>
       <c r="F9">
-        <v>1.009783222855637</v>
+        <v>1.041740628635319</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038689734472694</v>
+        <v>1.052541720143857</v>
       </c>
       <c r="J9">
-        <v>1.014455597628722</v>
+        <v>1.041298380995352</v>
       </c>
       <c r="K9">
-        <v>1.021269576689054</v>
+        <v>1.048575940460867</v>
       </c>
       <c r="L9">
-        <v>1.016961538906768</v>
+        <v>1.043676184267998</v>
       </c>
       <c r="M9">
-        <v>1.022719543459948</v>
+        <v>1.054190941255486</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.051460803686077</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.045437234802725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9738432535395274</v>
+        <v>1.010877789542483</v>
       </c>
       <c r="D10">
-        <v>0.9972324241589086</v>
+        <v>1.032488225192856</v>
       </c>
       <c r="E10">
-        <v>0.9913681579487214</v>
+        <v>1.026994625850012</v>
       </c>
       <c r="F10">
-        <v>0.9965555827001504</v>
+        <v>1.037929558553998</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034273339122702</v>
+        <v>1.051270083268092</v>
       </c>
       <c r="J10">
-        <v>1.00313451379142</v>
+        <v>1.038666374830382</v>
       </c>
       <c r="K10">
-        <v>1.011651828483933</v>
+        <v>1.046294666158094</v>
       </c>
       <c r="L10">
-        <v>1.005895031767584</v>
+        <v>1.040893009195487</v>
       </c>
       <c r="M10">
-        <v>1.010987306903917</v>
+        <v>1.051646165549777</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.049497571342399</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043840888791033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9671685532126671</v>
+        <v>1.008890074764584</v>
       </c>
       <c r="D11">
-        <v>0.99219345247908</v>
+        <v>1.031332295084527</v>
       </c>
       <c r="E11">
-        <v>0.9856565898746746</v>
+        <v>1.025684870576019</v>
       </c>
       <c r="F11">
-        <v>0.9905433994826068</v>
+        <v>1.036950751232028</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032246700933456</v>
+        <v>1.050957962452278</v>
       </c>
       <c r="J11">
-        <v>0.9979739455397703</v>
+        <v>1.037897636483597</v>
       </c>
       <c r="K11">
-        <v>1.007264105911204</v>
+        <v>1.045686569499351</v>
       </c>
       <c r="L11">
-        <v>1.000854167777313</v>
+        <v>1.040138136118251</v>
       </c>
       <c r="M11">
-        <v>1.005645884437477</v>
+        <v>1.051207925270326</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.049581447294385</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.043443422692453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9646337462842504</v>
+        <v>1.008294767100331</v>
       </c>
       <c r="D12">
-        <v>0.9902815264897638</v>
+        <v>1.031043747463293</v>
       </c>
       <c r="E12">
-        <v>0.9834898997471193</v>
+        <v>1.025369774206385</v>
       </c>
       <c r="F12">
-        <v>0.9882628417610714</v>
+        <v>1.036837236683588</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031475106748215</v>
+        <v>1.050932446547032</v>
       </c>
       <c r="J12">
-        <v>0.9960141298075353</v>
+        <v>1.037752179370317</v>
       </c>
       <c r="K12">
-        <v>1.005597316045989</v>
+        <v>1.045599423363427</v>
       </c>
       <c r="L12">
-        <v>0.9989403933609805</v>
+        <v>1.040026551847053</v>
       </c>
       <c r="M12">
-        <v>1.003618415591442</v>
+        <v>1.051291159679665</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.049969928458776</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.043381808849292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9651800822080774</v>
+        <v>1.008744357762874</v>
       </c>
       <c r="D13">
-        <v>0.9906935291668398</v>
+        <v>1.031419701590665</v>
       </c>
       <c r="E13">
-        <v>0.983956783562387</v>
+        <v>1.025811709258965</v>
       </c>
       <c r="F13">
-        <v>0.9887542544386902</v>
+        <v>1.037401293318351</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031641496554156</v>
+        <v>1.051138857823857</v>
       </c>
       <c r="J13">
-        <v>0.996436533672779</v>
+        <v>1.038091910968126</v>
       </c>
       <c r="K13">
-        <v>1.005956583668665</v>
+        <v>1.045926630092353</v>
       </c>
       <c r="L13">
-        <v>0.9993528470355361</v>
+        <v>1.040418127969658</v>
       </c>
       <c r="M13">
-        <v>1.004055353698083</v>
+        <v>1.051803637959084</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.050648994737796</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.043610685440072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.966960193162585</v>
+        <v>1.009534227879393</v>
       </c>
       <c r="D14">
-        <v>0.9920362568631517</v>
+        <v>1.03198612490669</v>
       </c>
       <c r="E14">
-        <v>0.9854784396191065</v>
+        <v>1.026465296550206</v>
       </c>
       <c r="F14">
-        <v>0.9903558833423654</v>
+        <v>1.03810459192083</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032183314802098</v>
+        <v>1.051389181553656</v>
       </c>
       <c r="J14">
-        <v>0.9978128488371814</v>
+        <v>1.038550776712595</v>
       </c>
       <c r="K14">
-        <v>1.007127105148953</v>
+        <v>1.046345241478477</v>
       </c>
       <c r="L14">
-        <v>1.000696843688497</v>
+        <v>1.040921136263794</v>
       </c>
       <c r="M14">
-        <v>1.005479205531305</v>
+        <v>1.052358068093229</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.051259049639971</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.043908059473983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9680494399398184</v>
+        <v>1.009958640255298</v>
       </c>
       <c r="D15">
-        <v>0.9928581011151713</v>
+        <v>1.03227568260701</v>
       </c>
       <c r="E15">
-        <v>0.9864098553540394</v>
+        <v>1.026796170289479</v>
       </c>
       <c r="F15">
-        <v>0.9913362732597105</v>
+        <v>1.038434647488935</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032514601139102</v>
+        <v>1.051504854824642</v>
       </c>
       <c r="J15">
-        <v>0.9986550166170736</v>
+        <v>1.038774297898847</v>
       </c>
       <c r="K15">
-        <v>1.00784328729684</v>
+        <v>1.046544862768602</v>
       </c>
       <c r="L15">
-        <v>1.00151931311823</v>
+        <v>1.041160621931004</v>
       </c>
       <c r="M15">
-        <v>1.006350597537277</v>
+        <v>1.052598292281682</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.051486157109689</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.04405499870475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9742787681630029</v>
+        <v>1.012170239352767</v>
       </c>
       <c r="D16">
-        <v>0.9975614251186532</v>
+        <v>1.033711199898585</v>
       </c>
       <c r="E16">
-        <v>0.9917411387046624</v>
+        <v>1.028437452983757</v>
       </c>
       <c r="F16">
-        <v>0.9969482183112486</v>
+        <v>1.039960784898437</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034405297853669</v>
+        <v>1.052018419246192</v>
       </c>
       <c r="J16">
-        <v>1.003471220575668</v>
+        <v>1.039833912615538</v>
       </c>
       <c r="K16">
-        <v>1.011938041148494</v>
+        <v>1.047462372563446</v>
       </c>
       <c r="L16">
-        <v>1.006224006366713</v>
+        <v>1.042276338353066</v>
       </c>
       <c r="M16">
-        <v>1.011335952617714</v>
+        <v>1.053609494389154</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.052247017607886</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.044706828188208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9780935382901234</v>
+        <v>1.013454853185827</v>
       </c>
       <c r="D17">
-        <v>1.000444290865276</v>
+        <v>1.034517073959356</v>
       </c>
       <c r="E17">
-        <v>0.995009760977284</v>
+        <v>1.029355472215134</v>
       </c>
       <c r="F17">
-        <v>1.000389218445741</v>
+        <v>1.040760507349756</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035559596955651</v>
+        <v>1.052279063163816</v>
       </c>
       <c r="J17">
-        <v>1.006420381243633</v>
+        <v>1.040405622781415</v>
       </c>
       <c r="K17">
-        <v>1.014444534535356</v>
+        <v>1.047945801294755</v>
       </c>
       <c r="L17">
-        <v>1.009105856588401</v>
+        <v>1.042867653101881</v>
       </c>
       <c r="M17">
-        <v>1.014390426692804</v>
+        <v>1.054089706471395</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.052498691664903</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.04505118218252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9802869468890174</v>
+        <v>1.014051121152953</v>
       </c>
       <c r="D18">
-        <v>1.002102720186482</v>
+        <v>1.03483677162548</v>
       </c>
       <c r="E18">
-        <v>0.9968904387967371</v>
+        <v>1.029716026440384</v>
       </c>
       <c r="F18">
-        <v>1.002369188998744</v>
+        <v>1.040975203733909</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036221973472665</v>
+        <v>1.052335631800851</v>
       </c>
       <c r="J18">
-        <v>1.008115947671383</v>
+        <v>1.040593605722695</v>
       </c>
       <c r="K18">
-        <v>1.015885256383993</v>
+        <v>1.048080101272178</v>
       </c>
       <c r="L18">
-        <v>1.01076306406255</v>
+        <v>1.04304080617222</v>
       </c>
       <c r="M18">
-        <v>1.016147152085866</v>
+        <v>1.054122245931671</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.052289101411933</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.045134634124301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9810296235061701</v>
+        <v>1.014038844329889</v>
       </c>
       <c r="D19">
-        <v>1.002664390802019</v>
+        <v>1.034735254561032</v>
       </c>
       <c r="E19">
-        <v>0.9975274387741437</v>
+        <v>1.029583840563642</v>
       </c>
       <c r="F19">
-        <v>1.003039839214647</v>
+        <v>1.04067151759949</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036446022605073</v>
+        <v>1.05222031044311</v>
       </c>
       <c r="J19">
-        <v>1.008690029669916</v>
+        <v>1.040450183233094</v>
       </c>
       <c r="K19">
-        <v>1.01637299390244</v>
+        <v>1.047918711080333</v>
       </c>
       <c r="L19">
-        <v>1.011324215358219</v>
+        <v>1.042848822771339</v>
       </c>
       <c r="M19">
-        <v>1.016742043648854</v>
+        <v>1.053762306259951</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.051682703855247</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.045026849502469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.97768756396902</v>
+        <v>1.01230882516879</v>
       </c>
       <c r="D20">
-        <v>1.000137401503456</v>
+        <v>1.033438573229263</v>
       </c>
       <c r="E20">
-        <v>0.9946617725877421</v>
+        <v>1.028070834812386</v>
       </c>
       <c r="F20">
-        <v>1.000022866625106</v>
+        <v>1.038938925652555</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035436890760284</v>
+        <v>1.051619887091973</v>
       </c>
       <c r="J20">
-        <v>1.006106539508772</v>
+        <v>1.039373371420702</v>
       </c>
       <c r="K20">
-        <v>1.014177835301706</v>
+        <v>1.046917869460159</v>
       </c>
       <c r="L20">
-        <v>1.008799142280949</v>
+        <v>1.041637420048393</v>
       </c>
       <c r="M20">
-        <v>1.014065313962817</v>
+        <v>1.052329975523652</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.050028316950737</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.044323106589564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.966437576539751</v>
+        <v>1.008163793073759</v>
       </c>
       <c r="D21">
-        <v>0.9916420010816892</v>
+        <v>1.030706706056518</v>
       </c>
       <c r="E21">
-        <v>0.9850316350926372</v>
+        <v>1.0249399409289</v>
       </c>
       <c r="F21">
-        <v>0.9898855917106042</v>
+        <v>1.03596266992773</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032024296493236</v>
+        <v>1.050606071738707</v>
       </c>
       <c r="J21">
-        <v>0.997408780257093</v>
+        <v>1.037324110890755</v>
       </c>
       <c r="K21">
-        <v>1.006783467469342</v>
+        <v>1.045128782803632</v>
       </c>
       <c r="L21">
-        <v>1.000302247174284</v>
+        <v>1.039463737572028</v>
       </c>
       <c r="M21">
-        <v>1.005061152163217</v>
+        <v>1.050293312833969</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.048376131738177</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.043061370595194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9590395855534118</v>
+        <v>1.00552783703291</v>
       </c>
       <c r="D22">
-        <v>0.9860655190324329</v>
+        <v>1.02897772001844</v>
       </c>
       <c r="E22">
-        <v>0.9787128102760193</v>
+        <v>1.022965367218034</v>
       </c>
       <c r="F22">
-        <v>0.9832350070206574</v>
+        <v>1.034101526970653</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029768827048967</v>
+        <v>1.049960003169886</v>
       </c>
       <c r="J22">
-        <v>0.9916891196970626</v>
+        <v>1.036027310535364</v>
       </c>
       <c r="K22">
-        <v>1.001918168728033</v>
+        <v>1.043996180347433</v>
       </c>
       <c r="L22">
-        <v>0.9947181036090377</v>
+        <v>1.038095202934269</v>
       </c>
       <c r="M22">
-        <v>0.9991460617735004</v>
+        <v>1.049026401320597</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.047373466341567</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042247228465625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9629942659209573</v>
+        <v>1.00692032788654</v>
       </c>
       <c r="D23">
-        <v>0.9890454353531172</v>
+        <v>1.02988512537582</v>
       </c>
       <c r="E23">
-        <v>0.9820892108974222</v>
+        <v>1.024006153981575</v>
       </c>
       <c r="F23">
-        <v>0.986788588923686</v>
+        <v>1.035082139447183</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030975520129016</v>
+        <v>1.050297835673718</v>
       </c>
       <c r="J23">
-        <v>0.9947465648431693</v>
+        <v>1.036708128522707</v>
       </c>
       <c r="K23">
-        <v>1.004519148319624</v>
+        <v>1.044587263488829</v>
       </c>
       <c r="L23">
-        <v>0.9977027752778761</v>
+        <v>1.038814428318026</v>
       </c>
       <c r="M23">
-        <v>1.002307390376699</v>
+        <v>1.049691755239456</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.047900044210969</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042655610901921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9778711037882396</v>
+        <v>1.012323630841192</v>
       </c>
       <c r="D24">
-        <v>1.000276142692593</v>
+        <v>1.033426819424841</v>
       </c>
       <c r="E24">
-        <v>0.9948190931354107</v>
+        <v>1.028062699041365</v>
       </c>
       <c r="F24">
-        <v>1.000188488670105</v>
+        <v>1.038906388210275</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035492369991893</v>
+        <v>1.051601953660464</v>
       </c>
       <c r="J24">
-        <v>1.006248426886717</v>
+        <v>1.039355408686678</v>
       </c>
       <c r="K24">
-        <v>1.014298410690567</v>
+        <v>1.04689129469243</v>
       </c>
       <c r="L24">
-        <v>1.008937806304958</v>
+        <v>1.041614295160209</v>
       </c>
       <c r="M24">
-        <v>1.014212295044445</v>
+        <v>1.052283057935078</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.049950862945415</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.04427721945024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9939051146941804</v>
+        <v>1.018409284907227</v>
       </c>
       <c r="D25">
-        <v>1.01241181061903</v>
+        <v>1.037438220557418</v>
       </c>
       <c r="E25">
-        <v>1.00858767112627</v>
+        <v>1.032661341621913</v>
       </c>
       <c r="F25">
-        <v>1.014686003066324</v>
+        <v>1.043245065772534</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040309993806139</v>
+        <v>1.053041923076289</v>
       </c>
       <c r="J25">
-        <v>1.018639351534629</v>
+        <v>1.042332598596197</v>
       </c>
       <c r="K25">
-        <v>1.024820456918563</v>
+        <v>1.04948188238171</v>
       </c>
       <c r="L25">
-        <v>1.02105412139594</v>
+        <v>1.0447729399573</v>
       </c>
       <c r="M25">
-        <v>1.027060536561206</v>
+        <v>1.055207200476116</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.052265092299739</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.046106029258776</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023098806818285</v>
+        <v>1.021710104364546</v>
       </c>
       <c r="D2">
-        <v>1.040529952394177</v>
+        <v>1.038495060163129</v>
       </c>
       <c r="E2">
-        <v>1.036223195549819</v>
+        <v>1.034980849766306</v>
       </c>
       <c r="F2">
-        <v>1.046606900038155</v>
+        <v>1.045243795764596</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054115530449006</v>
+        <v>1.053162939795568</v>
       </c>
       <c r="J2">
-        <v>1.044609922834639</v>
+        <v>1.043260307970697</v>
       </c>
       <c r="K2">
-        <v>1.051452105095986</v>
+        <v>1.049442934685853</v>
       </c>
       <c r="L2">
-        <v>1.047199936396352</v>
+        <v>1.045973442835821</v>
       </c>
       <c r="M2">
-        <v>1.05745297950407</v>
+        <v>1.05610684312428</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054042445329452</v>
+        <v>1.052977087422816</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047451323574379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046039372268091</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025100395402991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026443386241077</v>
+        <v>1.024966061206014</v>
       </c>
       <c r="D3">
-        <v>1.042752931184728</v>
+        <v>1.040589662283131</v>
       </c>
       <c r="E3">
-        <v>1.038778393002348</v>
+        <v>1.037453726227687</v>
       </c>
       <c r="F3">
-        <v>1.049020558603402</v>
+        <v>1.047570492134259</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054873625075237</v>
+        <v>1.053856225971065</v>
       </c>
       <c r="J3">
-        <v>1.04623824639519</v>
+        <v>1.044798514834251</v>
       </c>
       <c r="K3">
-        <v>1.052866512635925</v>
+        <v>1.05072825261035</v>
       </c>
       <c r="L3">
-        <v>1.048938021901898</v>
+        <v>1.047628799151939</v>
       </c>
       <c r="M3">
-        <v>1.059062400191058</v>
+        <v>1.05762883716113</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.055316169471568</v>
+        <v>1.054181622309569</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048448774693772</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046945274617325</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025349254939284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028574560442581</v>
+        <v>1.027041254661927</v>
       </c>
       <c r="D4">
-        <v>1.044173665129082</v>
+        <v>1.041928908423217</v>
       </c>
       <c r="E4">
-        <v>1.040412209344845</v>
+        <v>1.039035491704384</v>
       </c>
       <c r="F4">
-        <v>1.050564493291402</v>
+        <v>1.049059344116491</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055350050093956</v>
+        <v>1.054291507254421</v>
       </c>
       <c r="J4">
-        <v>1.047274531343859</v>
+        <v>1.045777654555786</v>
       </c>
       <c r="K4">
-        <v>1.053766655426549</v>
+        <v>1.051546313806796</v>
       </c>
       <c r="L4">
-        <v>1.050046184327227</v>
+        <v>1.048684558464425</v>
       </c>
       <c r="M4">
-        <v>1.060088673672354</v>
+        <v>1.058599637935757</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.056128379433979</v>
+        <v>1.054949931415226</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049086122030414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047524668659996</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025505447515152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029465766607691</v>
+        <v>1.027909196002517</v>
       </c>
       <c r="D5">
-        <v>1.044770641286349</v>
+        <v>1.042491955525527</v>
       </c>
       <c r="E5">
-        <v>1.041097222006323</v>
+        <v>1.039698861160725</v>
       </c>
       <c r="F5">
-        <v>1.05121211797637</v>
+        <v>1.049684050070928</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055549075876996</v>
+        <v>1.054473388474494</v>
       </c>
       <c r="J5">
-        <v>1.047709001337669</v>
+        <v>1.046188328395253</v>
       </c>
       <c r="K5">
-        <v>1.054145335420618</v>
+        <v>1.051890785832054</v>
       </c>
       <c r="L5">
-        <v>1.050510889345458</v>
+        <v>1.049127453059471</v>
       </c>
       <c r="M5">
-        <v>1.060519274315571</v>
+        <v>1.059007136330025</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.056469163712335</v>
+        <v>1.055272432704957</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049360955202403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047776026061687</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025571152486578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029618555575786</v>
+        <v>1.028058042082702</v>
       </c>
       <c r="D6">
-        <v>1.044875311528557</v>
+        <v>1.042590902237115</v>
       </c>
       <c r="E6">
-        <v>1.041215298452065</v>
+        <v>1.039813266972611</v>
       </c>
       <c r="F6">
-        <v>1.051323941932824</v>
+        <v>1.049791995950742</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055584823027495</v>
+        <v>1.05450622789962</v>
       </c>
       <c r="J6">
-        <v>1.047785229335733</v>
+        <v>1.046260522850726</v>
       </c>
       <c r="K6">
-        <v>1.054213338384496</v>
+        <v>1.051953017010418</v>
       </c>
       <c r="L6">
-        <v>1.050591980643394</v>
+        <v>1.049204844993311</v>
       </c>
       <c r="M6">
-        <v>1.060594660828243</v>
+        <v>1.059078613184558</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.056528825795949</v>
+        <v>1.055329000711969</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04941767339634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047829531891206</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025583560723301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028596177533819</v>
+        <v>1.027062404119466</v>
       </c>
       <c r="D7">
-        <v>1.04419420720732</v>
+        <v>1.041948859546252</v>
       </c>
       <c r="E7">
-        <v>1.040430328098003</v>
+        <v>1.039053169633973</v>
       </c>
       <c r="F7">
-        <v>1.050582104493357</v>
+        <v>1.049076517813919</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055359507775515</v>
+        <v>1.054300622168587</v>
       </c>
       <c r="J7">
-        <v>1.047289801998364</v>
+        <v>1.045792453419823</v>
       </c>
       <c r="K7">
-        <v>1.053784142195651</v>
+        <v>1.051563206770503</v>
       </c>
       <c r="L7">
-        <v>1.050061258679765</v>
+        <v>1.048699191166961</v>
       </c>
       <c r="M7">
-        <v>1.06010328702054</v>
+        <v>1.058613812462902</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.056139944675389</v>
+        <v>1.054961149383901</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049118348497202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047558473769133</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025510206722584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024248202088949</v>
+        <v>1.022829023642522</v>
       </c>
       <c r="D8">
-        <v>1.041300511115911</v>
+        <v>1.03922169171597</v>
       </c>
       <c r="E8">
-        <v>1.037102063624215</v>
+        <v>1.03583141234843</v>
       </c>
       <c r="F8">
-        <v>1.047437512419866</v>
+        <v>1.046044570411742</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054383144174931</v>
+        <v>1.053408314353085</v>
       </c>
       <c r="J8">
-        <v>1.045175658400762</v>
+        <v>1.043795111678134</v>
       </c>
       <c r="K8">
-        <v>1.051948658230284</v>
+        <v>1.049895350109522</v>
       </c>
       <c r="L8">
-        <v>1.047801865184941</v>
+        <v>1.046546949802545</v>
       </c>
       <c r="M8">
-        <v>1.058011079729146</v>
+        <v>1.056634970078741</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.05448413601109</v>
+        <v>1.053395057307726</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.047825050002807</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046384158908879</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025190337663533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016308665229093</v>
+        <v>1.015102797892203</v>
       </c>
       <c r="D9">
-        <v>1.036041751464388</v>
+        <v>1.034269307528702</v>
       </c>
       <c r="E9">
-        <v>1.03106782441368</v>
+        <v>1.029994922788172</v>
       </c>
       <c r="F9">
-        <v>1.041740628635319</v>
+        <v>1.040555986539342</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052541720143857</v>
+        <v>1.051721543964082</v>
       </c>
       <c r="J9">
-        <v>1.041298380995352</v>
+        <v>1.040133282485181</v>
       </c>
       <c r="K9">
-        <v>1.048575940460867</v>
+        <v>1.046829823055275</v>
       </c>
       <c r="L9">
-        <v>1.043676184267998</v>
+        <v>1.042619401249994</v>
       </c>
       <c r="M9">
-        <v>1.054190941255486</v>
+        <v>1.05302363877005</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.051460803686077</v>
+        <v>1.050536975237111</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045437234802725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04421325703006</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02458277392355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010877789542483</v>
+        <v>1.00981831805905</v>
       </c>
       <c r="D10">
-        <v>1.032488225192856</v>
+        <v>1.030924425656151</v>
       </c>
       <c r="E10">
-        <v>1.026994625850012</v>
+        <v>1.026056869211052</v>
       </c>
       <c r="F10">
-        <v>1.037929558553998</v>
+        <v>1.036887218896094</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051270083268092</v>
+        <v>1.050554721900466</v>
       </c>
       <c r="J10">
-        <v>1.038666374830382</v>
+        <v>1.037647732422372</v>
       </c>
       <c r="K10">
-        <v>1.046294666158094</v>
+        <v>1.044756910262287</v>
       </c>
       <c r="L10">
-        <v>1.040893009195487</v>
+        <v>1.039971074024881</v>
       </c>
       <c r="M10">
-        <v>1.051646165549777</v>
+        <v>1.050620940551066</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.049497571342399</v>
+        <v>1.04868623332161</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043840888791033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042765908955963</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024166085842616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008890074764584</v>
+        <v>1.00786209643168</v>
       </c>
       <c r="D11">
-        <v>1.031332295084527</v>
+        <v>1.029821295986461</v>
       </c>
       <c r="E11">
-        <v>1.025684870576019</v>
+        <v>1.024775431122736</v>
       </c>
       <c r="F11">
-        <v>1.036950751232028</v>
+        <v>1.035942204889006</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050957962452278</v>
+        <v>1.050265584357371</v>
       </c>
       <c r="J11">
-        <v>1.037897636483597</v>
+        <v>1.03691142157803</v>
       </c>
       <c r="K11">
-        <v>1.045686569499351</v>
+        <v>1.044201918230108</v>
       </c>
       <c r="L11">
-        <v>1.040138136118251</v>
+        <v>1.039244770110661</v>
       </c>
       <c r="M11">
-        <v>1.051207925270326</v>
+        <v>1.050216708741617</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.049581447294385</v>
+        <v>1.048797407534582</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043443422692453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042409209029155</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024093176016425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008294767100331</v>
+        <v>1.007265136683831</v>
       </c>
       <c r="D12">
-        <v>1.031043747463293</v>
+        <v>1.029536934656569</v>
       </c>
       <c r="E12">
-        <v>1.025369774206385</v>
+        <v>1.024458232179071</v>
       </c>
       <c r="F12">
-        <v>1.036837236683588</v>
+        <v>1.035829691496871</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050932446547032</v>
+        <v>1.050239344531339</v>
       </c>
       <c r="J12">
-        <v>1.037752179370317</v>
+        <v>1.036765174041827</v>
       </c>
       <c r="K12">
-        <v>1.045599423363427</v>
+        <v>1.04411931869634</v>
       </c>
       <c r="L12">
-        <v>1.040026551847053</v>
+        <v>1.039131387822674</v>
       </c>
       <c r="M12">
-        <v>1.051291159679665</v>
+        <v>1.050301204428673</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.049969928458776</v>
+        <v>1.049187145505793</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043381808849292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042350810762947</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.0241057065476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008744357762874</v>
+        <v>1.007687044673569</v>
       </c>
       <c r="D13">
-        <v>1.031419701590665</v>
+        <v>1.029879434396512</v>
       </c>
       <c r="E13">
-        <v>1.025811709258965</v>
+        <v>1.024874202019386</v>
       </c>
       <c r="F13">
-        <v>1.037401293318351</v>
+        <v>1.03636925121372</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051138857823857</v>
+        <v>1.050426500775875</v>
       </c>
       <c r="J13">
-        <v>1.038091910968126</v>
+        <v>1.037078155653876</v>
       </c>
       <c r="K13">
-        <v>1.045926630092353</v>
+        <v>1.044413548472954</v>
       </c>
       <c r="L13">
-        <v>1.040418127969658</v>
+        <v>1.03949739081804</v>
       </c>
       <c r="M13">
-        <v>1.051803637959084</v>
+        <v>1.050789528810957</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.050648994737796</v>
+        <v>1.0498473104121</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043610685440072</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.04255612533934</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024191595908133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009534227879393</v>
+        <v>1.008445936359254</v>
       </c>
       <c r="D14">
-        <v>1.03198612490669</v>
+        <v>1.030405517021177</v>
       </c>
       <c r="E14">
-        <v>1.026465296550206</v>
+        <v>1.025498987964281</v>
       </c>
       <c r="F14">
-        <v>1.03810459192083</v>
+        <v>1.037043990664869</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051389181553656</v>
+        <v>1.050655051780819</v>
       </c>
       <c r="J14">
-        <v>1.038550776712595</v>
+        <v>1.037506685564893</v>
       </c>
       <c r="K14">
-        <v>1.046345241478477</v>
+        <v>1.04479218819028</v>
       </c>
       <c r="L14">
-        <v>1.040921136263794</v>
+        <v>1.039971895991866</v>
       </c>
       <c r="M14">
-        <v>1.052358068093229</v>
+        <v>1.051315663543967</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.051259049639971</v>
+        <v>1.050435106591176</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.043908059473983</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042825372830873</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02428546088064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009958640255298</v>
+        <v>1.008856895947546</v>
       </c>
       <c r="D15">
-        <v>1.03227568260701</v>
+        <v>1.030676718074659</v>
       </c>
       <c r="E15">
-        <v>1.026796170289479</v>
+        <v>1.025817427006916</v>
       </c>
       <c r="F15">
-        <v>1.038434647488935</v>
+        <v>1.037361315932128</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051504854824642</v>
+        <v>1.050761203398536</v>
       </c>
       <c r="J15">
-        <v>1.038774297898847</v>
+        <v>1.037716914728451</v>
       </c>
       <c r="K15">
-        <v>1.046544862768602</v>
+        <v>1.044973563749843</v>
       </c>
       <c r="L15">
-        <v>1.041160621931004</v>
+        <v>1.04019903474632</v>
       </c>
       <c r="M15">
-        <v>1.052598292281682</v>
+        <v>1.05154323606988</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.051486157109689</v>
+        <v>1.050652235583324</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.04405499870475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042959981992785</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024326450132689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012170239352767</v>
+        <v>1.011011657347715</v>
       </c>
       <c r="D16">
-        <v>1.033711199898585</v>
+        <v>1.032029933304032</v>
       </c>
       <c r="E16">
-        <v>1.028437452983757</v>
+        <v>1.027406537183233</v>
       </c>
       <c r="F16">
-        <v>1.039960784898437</v>
+        <v>1.038831853340423</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052018419246192</v>
+        <v>1.051234146745182</v>
       </c>
       <c r="J16">
-        <v>1.039833912615538</v>
+        <v>1.038719682421994</v>
       </c>
       <c r="K16">
-        <v>1.047462372563446</v>
+        <v>1.045808943388704</v>
       </c>
       <c r="L16">
-        <v>1.042276338353066</v>
+        <v>1.041262704341286</v>
       </c>
       <c r="M16">
-        <v>1.053609494389154</v>
+        <v>1.052498954644595</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.052247017607886</v>
+        <v>1.051369216975784</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044706828188208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043554043229858</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024493342013893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013454853185827</v>
+        <v>1.01226893858681</v>
       </c>
       <c r="D17">
-        <v>1.034517073959356</v>
+        <v>1.032793888324178</v>
       </c>
       <c r="E17">
-        <v>1.029355472215134</v>
+        <v>1.028299610770052</v>
       </c>
       <c r="F17">
-        <v>1.040760507349756</v>
+        <v>1.039603902128237</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052279063163816</v>
+        <v>1.051475020991468</v>
       </c>
       <c r="J17">
-        <v>1.040405622781415</v>
+        <v>1.039263669219872</v>
       </c>
       <c r="K17">
-        <v>1.047945801294755</v>
+        <v>1.046250357342875</v>
       </c>
       <c r="L17">
-        <v>1.042867653101881</v>
+        <v>1.041828995619822</v>
       </c>
       <c r="M17">
-        <v>1.054089706471395</v>
+        <v>1.052951423437744</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.052498691664903</v>
+        <v>1.051598873678936</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04505118218252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043868939602049</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024571253535907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014051121152953</v>
+        <v>1.012861559356843</v>
       </c>
       <c r="D18">
-        <v>1.03483677162548</v>
+        <v>1.033103636447521</v>
       </c>
       <c r="E18">
-        <v>1.029716026440384</v>
+        <v>1.028657155663274</v>
       </c>
       <c r="F18">
-        <v>1.040975203733909</v>
+        <v>1.03981315049546</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052335631800851</v>
+        <v>1.051528604069787</v>
       </c>
       <c r="J18">
-        <v>1.040593605722695</v>
+        <v>1.039447325901146</v>
       </c>
       <c r="K18">
-        <v>1.048080101272178</v>
+        <v>1.046374417383223</v>
       </c>
       <c r="L18">
-        <v>1.04304080617222</v>
+        <v>1.041998907462757</v>
       </c>
       <c r="M18">
-        <v>1.054122245931671</v>
+        <v>1.052978309123535</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.052289101411933</v>
+        <v>1.051384629020442</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.045134634124301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043944015492206</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024574171741673</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014038844329889</v>
+        <v>1.012866220812726</v>
       </c>
       <c r="D19">
-        <v>1.034735254561032</v>
+        <v>1.033020375169453</v>
       </c>
       <c r="E19">
-        <v>1.029583840563642</v>
+        <v>1.028541016398681</v>
       </c>
       <c r="F19">
-        <v>1.04067151759949</v>
+        <v>1.039523460671777</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05222031044311</v>
+        <v>1.051424920994116</v>
       </c>
       <c r="J19">
-        <v>1.040450183233094</v>
+        <v>1.039319977258625</v>
       </c>
       <c r="K19">
-        <v>1.047918711080333</v>
+        <v>1.046230855588147</v>
       </c>
       <c r="L19">
-        <v>1.042848822771339</v>
+        <v>1.041822629623808</v>
       </c>
       <c r="M19">
-        <v>1.053762306259951</v>
+        <v>1.052632065550908</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.051682703855247</v>
+        <v>1.050788774812562</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.045026849502469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043849461575248</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024516422155997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01230882516879</v>
+        <v>1.011210380684963</v>
       </c>
       <c r="D20">
-        <v>1.033438573229263</v>
+        <v>1.031819844849605</v>
       </c>
       <c r="E20">
-        <v>1.028070834812386</v>
+        <v>1.027097120717942</v>
       </c>
       <c r="F20">
-        <v>1.038938925652555</v>
+        <v>1.037858902731491</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051619887091973</v>
+        <v>1.05087674476312</v>
       </c>
       <c r="J20">
-        <v>1.039373371420702</v>
+        <v>1.038315897343947</v>
       </c>
       <c r="K20">
-        <v>1.046917869460159</v>
+        <v>1.045325341670702</v>
       </c>
       <c r="L20">
-        <v>1.041637420048393</v>
+        <v>1.040679665993376</v>
       </c>
       <c r="M20">
-        <v>1.052329975523652</v>
+        <v>1.05126718562743</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.050028316950737</v>
+        <v>1.04918724107518</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044323106589564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.043213508572911</v>
+      </c>
+      <c r="S20">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T20">
+        <v>1.024285127638888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008163793073759</v>
+        <v>1.007182448280035</v>
       </c>
       <c r="D21">
-        <v>1.030706706056518</v>
+        <v>1.029252290035766</v>
       </c>
       <c r="E21">
-        <v>1.0249399409289</v>
+        <v>1.024074200337802</v>
       </c>
       <c r="F21">
-        <v>1.03596266992773</v>
+        <v>1.034995405372481</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050606071738707</v>
+        <v>1.049946059087814</v>
       </c>
       <c r="J21">
-        <v>1.037324110890755</v>
+        <v>1.036382913669081</v>
       </c>
       <c r="K21">
-        <v>1.045128782803632</v>
+        <v>1.043699881898878</v>
       </c>
       <c r="L21">
-        <v>1.039463737572028</v>
+        <v>1.038613396144526</v>
       </c>
       <c r="M21">
-        <v>1.050293312833969</v>
+        <v>1.049342784795606</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.048376131738177</v>
+        <v>1.047623860248575</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.043061370595194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.042067790959132</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023946250927849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.00552783703291</v>
+        <v>1.004620501412599</v>
       </c>
       <c r="D22">
-        <v>1.02897772001844</v>
+        <v>1.027626735168681</v>
       </c>
       <c r="E22">
-        <v>1.022965367218034</v>
+        <v>1.022167679620665</v>
       </c>
       <c r="F22">
-        <v>1.034101526970653</v>
+        <v>1.033205378346292</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049960003169886</v>
+        <v>1.049352181889791</v>
       </c>
       <c r="J22">
-        <v>1.036027310535364</v>
+        <v>1.035159227018599</v>
       </c>
       <c r="K22">
-        <v>1.043996180347433</v>
+        <v>1.042670073770109</v>
       </c>
       <c r="L22">
-        <v>1.038095202934269</v>
+        <v>1.037312420552453</v>
       </c>
       <c r="M22">
-        <v>1.049026401320597</v>
+        <v>1.048146533643586</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.047373466341567</v>
+        <v>1.046677116298353</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042247228465625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041325024367381</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023730121451836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00692032788654</v>
+        <v>1.005973850848694</v>
       </c>
       <c r="D23">
-        <v>1.02988512537582</v>
+        <v>1.028479361498568</v>
       </c>
       <c r="E23">
-        <v>1.024006153981575</v>
+        <v>1.023172501921558</v>
       </c>
       <c r="F23">
-        <v>1.035082139447183</v>
+        <v>1.034148371769555</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050297835673718</v>
+        <v>1.049662448865268</v>
       </c>
       <c r="J23">
-        <v>1.036708128522707</v>
+        <v>1.035801411351435</v>
       </c>
       <c r="K23">
-        <v>1.044587263488829</v>
+        <v>1.043206735181818</v>
       </c>
       <c r="L23">
-        <v>1.038814428318026</v>
+        <v>1.037995955134579</v>
       </c>
       <c r="M23">
-        <v>1.049691755239456</v>
+        <v>1.048774522496717</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.047900044210969</v>
+        <v>1.047174122990932</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042655610901921</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041693983731784</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023841693209789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012323630841192</v>
+        <v>1.011226903066038</v>
       </c>
       <c r="D24">
-        <v>1.033426819424841</v>
+        <v>1.031809597119171</v>
       </c>
       <c r="E24">
-        <v>1.028062699041365</v>
+        <v>1.027090634708173</v>
       </c>
       <c r="F24">
-        <v>1.038906388210275</v>
+        <v>1.037827673284158</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051601953660464</v>
+        <v>1.050859973673033</v>
       </c>
       <c r="J24">
-        <v>1.039355408686678</v>
+        <v>1.038299528241856</v>
       </c>
       <c r="K24">
-        <v>1.04689129469243</v>
+        <v>1.045300215880801</v>
       </c>
       <c r="L24">
-        <v>1.041614295160209</v>
+        <v>1.040658143736354</v>
       </c>
       <c r="M24">
-        <v>1.052283057935078</v>
+        <v>1.051221534567724</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.049950862945415</v>
+        <v>1.049110748728113</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04427721945024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04316596988827</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024274228554176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018409284907227</v>
+        <v>1.017146491071957</v>
       </c>
       <c r="D25">
-        <v>1.037438220557418</v>
+        <v>1.035584652892617</v>
       </c>
       <c r="E25">
-        <v>1.032661341621913</v>
+        <v>1.031535730009782</v>
       </c>
       <c r="F25">
-        <v>1.043245065772534</v>
+        <v>1.042005060215218</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053041923076289</v>
+        <v>1.052180710885819</v>
       </c>
       <c r="J25">
-        <v>1.042332598596197</v>
+        <v>1.041110272452663</v>
       </c>
       <c r="K25">
-        <v>1.04948188238171</v>
+        <v>1.047654581939206</v>
       </c>
       <c r="L25">
-        <v>1.0447729399573</v>
+        <v>1.043663452708335</v>
       </c>
       <c r="M25">
-        <v>1.055207200476116</v>
+        <v>1.053984508054756</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.052265092299739</v>
+        <v>1.051297428066464</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.046106029258776</v>
+        <v>1.044827458582169</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024750565983835</v>
       </c>
     </row>
   </sheetData>
